--- a/sriramModel-nelson-melancholic-patientID_13-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_13-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.31164218602806</v>
+        <v>21.30341915456449</v>
       </c>
       <c r="C2">
-        <v>21.42981897390152</v>
+        <v>21.37395108835201</v>
       </c>
       <c r="D2">
-        <v>21.30296268517855</v>
+        <v>21.31155891552267</v>
       </c>
       <c r="E2">
-        <v>21.3117809977107</v>
+        <v>21.33966942426801</v>
       </c>
       <c r="F2">
-        <v>21.34529850793922</v>
+        <v>21.38221204654106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.23118887313477</v>
+        <v>21.2144846763881</v>
       </c>
       <c r="C3">
-        <v>21.46400034556567</v>
+        <v>21.35434338766558</v>
       </c>
       <c r="D3">
-        <v>21.21363790826729</v>
+        <v>21.23060330259235</v>
       </c>
       <c r="E3">
-        <v>21.23142400589339</v>
+        <v>21.28569378183857</v>
       </c>
       <c r="F3">
-        <v>21.29718058298369</v>
+        <v>21.37267855781322</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.15859827620746</v>
+        <v>21.1331855133282</v>
       </c>
       <c r="C4">
-        <v>21.50250895711074</v>
+        <v>21.34111057402139</v>
       </c>
       <c r="D4">
-        <v>21.13201213830409</v>
+        <v>21.15711929156195</v>
       </c>
       <c r="E4">
-        <v>21.15887988483709</v>
+        <v>21.23806117467627</v>
       </c>
       <c r="F4">
-        <v>21.25562167355742</v>
+        <v>21.37127035741333</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.09383014287233</v>
+        <v>21.05951152772206</v>
       </c>
       <c r="C5">
-        <v>21.54531005876786</v>
+        <v>21.33418715942358</v>
       </c>
       <c r="D5">
-        <v>21.05807207767453</v>
+        <v>21.09109312333862</v>
       </c>
       <c r="E5">
-        <v>21.09410196671604</v>
+        <v>21.19675976585144</v>
       </c>
       <c r="F5">
-        <v>21.2205975645628</v>
+        <v>21.37785863295271</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.03684572252323</v>
+        <v>20.99345317440437</v>
       </c>
       <c r="C6">
-        <v>21.59236934373794</v>
+        <v>21.33350847888779</v>
       </c>
       <c r="D6">
-        <v>20.99180472215719</v>
+        <v>21.03251120724275</v>
       </c>
       <c r="E6">
-        <v>21.03704590965742</v>
+        <v>21.1617778419633</v>
       </c>
       <c r="F6">
-        <v>21.19208442523241</v>
+        <v>21.39231482847232</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.9876076439687</v>
+        <v>20.93500129355691</v>
       </c>
       <c r="C7">
-        <v>21.64365292842354</v>
+        <v>21.33901061061221</v>
       </c>
       <c r="D7">
-        <v>20.93319732805851</v>
+        <v>20.98136010485009</v>
       </c>
       <c r="E7">
-        <v>20.98766945772204</v>
+        <v>21.1331038045473</v>
       </c>
       <c r="F7">
-        <v>21.17005879018827</v>
+        <v>21.41451055047213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.94607982693452</v>
+        <v>20.88414698701081</v>
       </c>
       <c r="C8">
-        <v>21.69912734395613</v>
+        <v>21.35063032301461</v>
       </c>
       <c r="D8">
-        <v>20.88223740338105</v>
+        <v>20.93762651745981</v>
       </c>
       <c r="E8">
-        <v>20.94593226703869</v>
+        <v>21.11072616921145</v>
       </c>
       <c r="F8">
-        <v>21.15449754407483</v>
+        <v>21.44431744366916</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.91222739677145</v>
+        <v>20.84088154412127</v>
       </c>
       <c r="C9">
-        <v>21.75875952882894</v>
+        <v>21.36830501440831</v>
       </c>
       <c r="D9">
-        <v>20.83891268455877</v>
+        <v>20.90129727620077</v>
       </c>
       <c r="E9">
-        <v>20.91179573903474</v>
+        <v>21.09463356159065</v>
       </c>
       <c r="F9">
-        <v>21.1453779081985</v>
+        <v>21.48160706107842</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.88601660640029</v>
+        <v>20.80519638287285</v>
       </c>
       <c r="C10">
-        <v>21.82251682085897</v>
+        <v>21.39197264579345</v>
       </c>
       <c r="D10">
-        <v>20.80321111801664</v>
+        <v>20.87235932497992</v>
       </c>
       <c r="E10">
-        <v>20.88522287661969</v>
+        <v>21.08481471303733</v>
       </c>
       <c r="F10">
-        <v>21.14267742636975</v>
+        <v>21.52625078549955</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.86741477156947</v>
+        <v>20.77708301873736</v>
       </c>
       <c r="C11">
-        <v>21.8903669468956</v>
+        <v>21.42157168023914</v>
       </c>
       <c r="D11">
-        <v>20.77512085276425</v>
+        <v>20.85079970991197</v>
       </c>
       <c r="E11">
-        <v>20.86617816570162</v>
+        <v>21.08125845886712</v>
       </c>
       <c r="F11">
-        <v>21.14637395260137</v>
+        <v>21.57811971465491</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.85639019730359</v>
+        <v>20.75653303676812</v>
       </c>
       <c r="C12">
-        <v>21.96227801342895</v>
+        <v>21.45704102226555</v>
       </c>
       <c r="D12">
-        <v>20.7546302256676</v>
+        <v>20.83660556889054</v>
       </c>
       <c r="E12">
-        <v>20.85462744136878</v>
+        <v>21.0839537353803</v>
       </c>
       <c r="F12">
-        <v>21.15644563700809</v>
+        <v>21.63708457135643</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.85291211348017</v>
+        <v>20.74353807553989</v>
       </c>
       <c r="C13">
-        <v>22.03821849814049</v>
+        <v>21.49831995442426</v>
       </c>
       <c r="D13">
-        <v>20.74172774791899</v>
+        <v>20.82976411926252</v>
       </c>
       <c r="E13">
-        <v>20.85053778105832</v>
+        <v>21.09288957659111</v>
       </c>
       <c r="F13">
-        <v>21.17287091169</v>
+        <v>21.70301547471013</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.85695062047598</v>
+        <v>20.73808981017389</v>
       </c>
       <c r="C14">
-        <v>22.11815724160845</v>
+        <v>21.54534807615688</v>
       </c>
       <c r="D14">
-        <v>20.73640209331664</v>
+        <v>20.83026264550287</v>
       </c>
       <c r="E14">
-        <v>20.8538774173167</v>
+        <v>21.10805511101841</v>
       </c>
       <c r="F14">
-        <v>21.19562847846504</v>
+        <v>21.77578188889086</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.86847664118416</v>
+        <v>20.74017994200187</v>
       </c>
       <c r="C15">
-        <v>22.2020634388968</v>
+        <v>21.59806523748523</v>
       </c>
       <c r="D15">
-        <v>20.73864208744009</v>
+        <v>20.83808848737692</v>
       </c>
       <c r="E15">
-        <v>20.86461565371952</v>
+        <v>21.12943955930225</v>
       </c>
       <c r="F15">
-        <v>21.22469729713246</v>
+        <v>21.85525252215898</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.8874618689067</v>
+        <v>20.74980016564897</v>
       </c>
       <c r="C16">
-        <v>22.28990662951602</v>
+        <v>21.65641148870669</v>
       </c>
       <c r="D16">
-        <v>20.74843669872658</v>
+        <v>20.85322902867526</v>
       </c>
       <c r="E16">
-        <v>20.88272278442995</v>
+        <v>21.15703223174243</v>
       </c>
       <c r="F16">
-        <v>21.26005657312565</v>
+        <v>21.94129519061104</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.91387871714843</v>
+        <v>20.76694218833725</v>
       </c>
       <c r="C17">
-        <v>22.38165669464539</v>
+        <v>21.72032699021774</v>
       </c>
       <c r="D17">
-        <v>20.76577502896305</v>
+        <v>20.87567168575472</v>
       </c>
       <c r="E17">
-        <v>20.90817001646887</v>
+        <v>21.19082252567523</v>
       </c>
       <c r="F17">
-        <v>21.30168574453104</v>
+        <v>22.03377667998673</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.9477002733089</v>
+        <v>20.79159770899938</v>
       </c>
       <c r="C18">
-        <v>22.47728384331185</v>
+        <v>21.78975194585009</v>
       </c>
       <c r="D18">
-        <v>20.79064630410054</v>
+        <v>20.90540389364291</v>
       </c>
       <c r="E18">
-        <v>20.94092940237103</v>
+        <v>21.23079992265437</v>
       </c>
       <c r="F18">
-        <v>21.34956446953687</v>
+        <v>22.13256261281781</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.98890025140606</v>
+        <v>20.82375841658159</v>
       </c>
       <c r="C19">
-        <v>22.57675860423432</v>
+        <v>21.86462654552972</v>
       </c>
       <c r="D19">
-        <v>20.82303986536376</v>
+        <v>20.94241309233881</v>
       </c>
       <c r="E19">
-        <v>20.98097377498251</v>
+        <v>21.27695398582806</v>
       </c>
       <c r="F19">
-        <v>21.40367261362399</v>
+        <v>22.23751731033284</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.03745294767402</v>
+        <v>20.86341597634664</v>
       </c>
       <c r="C20">
-        <v>22.68005181856086</v>
+        <v>21.94489089169726</v>
       </c>
       <c r="D20">
-        <v>20.86294515975418</v>
+        <v>20.98668671393365</v>
       </c>
       <c r="E20">
-        <v>21.0282766900889</v>
+        <v>21.32927435748548</v>
       </c>
       <c r="F20">
-        <v>21.46399023732577</v>
+        <v>22.34850363112125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.09333319983676</v>
+        <v>20.91056201978013</v>
       </c>
       <c r="C21">
-        <v>22.78713463267063</v>
+        <v>22.03048491706664</v>
       </c>
       <c r="D21">
-        <v>20.91035173124397</v>
+        <v>21.03821216905189</v>
       </c>
       <c r="E21">
-        <v>21.0828123790072</v>
+        <v>21.3877507566287</v>
       </c>
       <c r="F21">
-        <v>21.53049758259336</v>
+        <v>22.46538287767887</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.15651633265062</v>
+        <v>20.9651881371491</v>
       </c>
       <c r="C22">
-        <v>22.89797848927229</v>
+        <v>22.12134830384029</v>
       </c>
       <c r="D22">
-        <v>20.96524921208042</v>
+        <v>21.09697683178375</v>
       </c>
       <c r="E22">
-        <v>21.14455568878654</v>
+        <v>21.45237297646272</v>
       </c>
       <c r="F22">
-        <v>21.60317506038353</v>
+        <v>22.58801462240862</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.22697812209832</v>
+        <v>21.02728586763252</v>
       </c>
       <c r="C23">
-        <v>23.01255511796919</v>
+        <v>22.2174204013274</v>
       </c>
       <c r="D23">
-        <v>21.02762731410079</v>
+        <v>21.162968022739</v>
       </c>
       <c r="E23">
-        <v>21.21348203496671</v>
+        <v>21.52313088181319</v>
       </c>
       <c r="F23">
-        <v>21.68200323618083</v>
+        <v>22.7162565174077</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.30469473518099</v>
+        <v>21.09684669233054</v>
       </c>
       <c r="C24">
-        <v>23.13083652598964</v>
+        <v>22.3186401398886</v>
       </c>
       <c r="D24">
-        <v>21.09747581946258</v>
+        <v>21.23617299285736</v>
       </c>
       <c r="E24">
-        <v>21.28956735342997</v>
+        <v>21.60001440651127</v>
       </c>
       <c r="F24">
-        <v>21.7669628168384</v>
+        <v>22.84996415420645</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.38964268332418</v>
+        <v>21.17386202488558</v>
       </c>
       <c r="C25">
-        <v>23.25279498892552</v>
+        <v>22.4249459361485</v>
       </c>
       <c r="D25">
-        <v>21.17478457079425</v>
+        <v>21.31657890268225</v>
       </c>
       <c r="E25">
-        <v>21.37278805242787</v>
+        <v>21.68301355074057</v>
       </c>
       <c r="F25">
-        <v>21.85803463374205</v>
+        <v>22.98899085120738</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>21.48179874942475</v>
+        <v>21.25832319869555</v>
       </c>
       <c r="C26">
-        <v>23.37840304083926</v>
+        <v>22.53627560083699</v>
       </c>
       <c r="D26">
-        <v>21.25954346020106</v>
+        <v>21.40417280670124</v>
       </c>
       <c r="E26">
-        <v>21.46312096503599</v>
+        <v>21.77211837829589</v>
       </c>
       <c r="F26">
-        <v>21.95519962984543</v>
+        <v>23.133187473977</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>21.58113993684194</v>
+        <v>21.35022145502523</v>
       </c>
       <c r="C27">
-        <v>23.50763346425644</v>
+        <v>22.65256622738439</v>
       </c>
       <c r="D27">
-        <v>21.35174241805646</v>
+        <v>21.49894162710799</v>
       </c>
       <c r="E27">
-        <v>21.56054330744378</v>
+        <v>21.86731901369642</v>
       </c>
       <c r="F27">
-        <v>22.05843884000625</v>
+        <v>23.28240225828146</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21.68764337957383</v>
+        <v>21.44954792826409</v>
       </c>
       <c r="C28">
-        <v>23.6404592785238</v>
+        <v>22.77375408113443</v>
       </c>
       <c r="D28">
-        <v>21.45137140031521</v>
+        <v>21.60087212940779</v>
       </c>
       <c r="E28">
-        <v>21.66503263176456</v>
+        <v>21.96860563910749</v>
       </c>
       <c r="F28">
-        <v>22.16773337499153</v>
+        <v>23.43648060058995</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>21.80128625215849</v>
+        <v>21.55629362957776</v>
       </c>
       <c r="C29">
-        <v>23.77685372846886</v>
+        <v>22.89977448650881</v>
       </c>
       <c r="D29">
-        <v>21.55842037470348</v>
+        <v>21.70995090160606</v>
       </c>
       <c r="E29">
-        <v>21.77656677990029</v>
+        <v>22.07596849102634</v>
       </c>
       <c r="F29">
-        <v>22.2830644029151</v>
+        <v>23.59526484598434</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>21.92204569669935</v>
+        <v>21.670449429262</v>
       </c>
       <c r="C30">
-        <v>23.91679027125414</v>
+        <v>23.03056169260556</v>
       </c>
       <c r="D30">
-        <v>21.67287930508034</v>
+        <v>21.82616431474527</v>
       </c>
       <c r="E30">
-        <v>21.89512383671993</v>
+        <v>22.18939785666994</v>
       </c>
       <c r="F30">
-        <v>22.40441312495325</v>
+        <v>23.7585940358474</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22.04989866010413</v>
+        <v>21.79200603611052</v>
       </c>
       <c r="C31">
-        <v>24.06024256007246</v>
+        <v>23.16604873398111</v>
       </c>
       <c r="D31">
-        <v>21.79473813337281</v>
+        <v>21.94949849851476</v>
       </c>
       <c r="E31">
-        <v>22.020682078016</v>
+        <v>22.30888406997571</v>
       </c>
       <c r="F31">
-        <v>22.53176075893258</v>
+        <v>23.92630366134147</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>22.18482179526003</v>
+        <v>21.92095397537684</v>
       </c>
       <c r="C32">
-        <v>24.20718443194713</v>
+        <v>23.30616728538937</v>
       </c>
       <c r="D32">
-        <v>21.92398675927835</v>
+        <v>22.0799393010829</v>
       </c>
       <c r="E32">
-        <v>22.15321991939953</v>
+        <v>22.43441750709989</v>
       </c>
       <c r="F32">
-        <v>22.66508850762666</v>
+        <v>24.09822540765766</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22.32679128118897</v>
+        <v>22.05728356021365</v>
       </c>
       <c r="C33">
-        <v>24.35758988557404</v>
+        <v>23.45084750309715</v>
       </c>
       <c r="D33">
-        <v>22.06061501665816</v>
+        <v>22.21747224240249</v>
       </c>
       <c r="E33">
-        <v>22.29271585903425</v>
+        <v>22.56598858126967</v>
       </c>
       <c r="F33">
-        <v>22.80437753526324</v>
+        <v>24.27418685895392</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22.47578258799634</v>
+        <v>22.20098486061031</v>
       </c>
       <c r="C34">
-        <v>24.51143306179009</v>
+        <v>23.60001784480585</v>
       </c>
       <c r="D34">
-        <v>22.20461264639451</v>
+        <v>22.36208248041461</v>
       </c>
       <c r="E34">
-        <v>22.43914841390949</v>
+        <v>22.70358773680643</v>
       </c>
       <c r="F34">
-        <v>22.94960893818252</v>
+        <v>24.45401120610994</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22.63177033590402</v>
+        <v>22.35204766610535</v>
       </c>
       <c r="C35">
-        <v>24.66868822423046</v>
+        <v>23.753604877105</v>
       </c>
       <c r="D35">
-        <v>22.35596926514843</v>
+        <v>22.51375474268413</v>
       </c>
       <c r="E35">
-        <v>22.59249605302982</v>
+        <v>22.84720544206258</v>
       </c>
       <c r="F35">
-        <v>23.10076370179683</v>
+        <v>24.63751692540282</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22.79472790343322</v>
+        <v>22.51046144546476</v>
       </c>
       <c r="C36">
-        <v>24.82932972373566</v>
+        <v>23.9115330802192</v>
       </c>
       <c r="D36">
-        <v>22.51467432718442</v>
+        <v>22.67247326998888</v>
       </c>
       <c r="E36">
-        <v>22.75273712474549</v>
+        <v>22.99683218101626</v>
       </c>
       <c r="F36">
-        <v>23.25782267651325</v>
+        <v>24.82451744311031</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22.96462713876543</v>
+        <v>22.67621529404459</v>
       </c>
       <c r="C37">
-        <v>24.99333197472112</v>
+        <v>24.07372459451504</v>
       </c>
       <c r="D37">
-        <v>22.68071708084492</v>
+        <v>22.83822175808392</v>
       </c>
       <c r="E37">
-        <v>22.919849764024</v>
+        <v>23.15245844303365</v>
       </c>
       <c r="F37">
-        <v>23.42076651710389</v>
+        <v>25.01482074773513</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>23.14143801501463</v>
+        <v>22.8492978751853</v>
       </c>
       <c r="C38">
-        <v>25.16066941368076</v>
+        <v>24.24009897449201</v>
       </c>
       <c r="D38">
-        <v>22.85408651633141</v>
+        <v>23.01098325147439</v>
       </c>
       <c r="E38">
-        <v>23.09381179321464</v>
+        <v>23.31407471022448</v>
       </c>
       <c r="F38">
-        <v>23.58957564188861</v>
+        <v>25.20822899873257</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>23.32512796626332</v>
+        <v>23.02969735000719</v>
       </c>
       <c r="C39">
-        <v>25.33131644616363</v>
+        <v>24.41057291852206</v>
       </c>
       <c r="D39">
-        <v>23.03477130360119</v>
+        <v>23.19074007804856</v>
       </c>
       <c r="E39">
-        <v>23.27460062411411</v>
+        <v>23.48167144165253</v>
       </c>
       <c r="F39">
-        <v>23.76423017749896</v>
+        <v>25.40453811456693</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>23.51566153039771</v>
+        <v>23.21740129701873</v>
       </c>
       <c r="C40">
-        <v>25.50524741196678</v>
+        <v>24.58505995527663</v>
       </c>
       <c r="D40">
-        <v>23.22275972139346</v>
+        <v>23.37747372513152</v>
       </c>
       <c r="E40">
-        <v>23.46219310612182</v>
+        <v>23.65523905333648</v>
       </c>
       <c r="F40">
-        <v>23.94470987069485</v>
+        <v>25.60353730188936</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>23.71299947711206</v>
+        <v>23.41239661068852</v>
       </c>
       <c r="C41">
-        <v>25.68243649651724</v>
+        <v>24.76347009824491</v>
       </c>
       <c r="D41">
-        <v>23.41803956506263</v>
+        <v>23.57116469639957</v>
       </c>
       <c r="E41">
-        <v>23.65656537192349</v>
+        <v>23.83476789256265</v>
       </c>
       <c r="F41">
-        <v>24.13099404552084</v>
+        <v>25.80500856081733</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>23.91709786183557</v>
+        <v>23.61466937936794</v>
       </c>
       <c r="C42">
-        <v>25.86285765486297</v>
+        <v>24.94570945122276</v>
       </c>
       <c r="D42">
-        <v>23.62059804098341</v>
+        <v>23.77179241528381</v>
       </c>
       <c r="E42">
-        <v>23.85769267799614</v>
+        <v>24.02024820444219</v>
       </c>
       <c r="F42">
-        <v>24.32306147051093</v>
+        <v>26.00872615092857</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>24.12790743325215</v>
+        <v>23.8242047400561</v>
       </c>
       <c r="C43">
-        <v>26.04648453474496</v>
+        <v>25.1316798247198</v>
       </c>
       <c r="D43">
-        <v>23.83042163711423</v>
+        <v>23.97933498411306</v>
       </c>
       <c r="E43">
-        <v>24.06554915799675</v>
+        <v>24.21167008779933</v>
       </c>
       <c r="F43">
-        <v>24.520890273141</v>
+        <v>26.21445604878971</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>24.3453717970749</v>
+        <v>24.04098670342056</v>
       </c>
       <c r="C44">
-        <v>26.23329030262509</v>
+        <v>25.32127819489641</v>
       </c>
       <c r="D44">
-        <v>24.04749596230399</v>
+        <v>24.19376900782181</v>
       </c>
       <c r="E44">
-        <v>24.28010755208605</v>
+        <v>24.40902343622741</v>
       </c>
       <c r="F44">
-        <v>24.72445781844475</v>
+        <v>26.42195528961426</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>24.56942639427149</v>
+        <v>24.2649979437453</v>
       </c>
       <c r="C45">
-        <v>26.42324753961761</v>
+        <v>25.51439617879519</v>
       </c>
       <c r="D45">
-        <v>24.27180556234406</v>
+        <v>24.41506937416808</v>
       </c>
       <c r="E45">
-        <v>24.50133892238094</v>
+        <v>24.61229785829545</v>
       </c>
       <c r="F45">
-        <v>24.93374049766197</v>
+        <v>26.63097131275106</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>24.79999667496729</v>
+        <v>24.49621951976455</v>
       </c>
       <c r="C46">
-        <v>26.61632802035982</v>
+        <v>25.71091946557722</v>
       </c>
       <c r="D46">
-        <v>24.50333367159477</v>
+        <v>24.6432088586083</v>
       </c>
       <c r="E46">
-        <v>24.72921223730878</v>
+        <v>24.82148256825761</v>
       </c>
       <c r="F46">
-        <v>25.14871365939225</v>
+        <v>26.84124124207835</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>25.03699544237015</v>
+        <v>24.73463054808637</v>
       </c>
       <c r="C47">
-        <v>26.81250240699459</v>
+        <v>25.9107270868344</v>
       </c>
       <c r="D47">
-        <v>24.74206191887</v>
+        <v>24.8781578910397</v>
       </c>
       <c r="E47">
-        <v>24.96369385979758</v>
+        <v>25.03656623391985</v>
       </c>
       <c r="F47">
-        <v>25.3693512398114</v>
+        <v>27.05249112715904</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>25.28032165959916</v>
+        <v>24.98020777449511</v>
       </c>
       <c r="C48">
-        <v>27.01174006831877</v>
+        <v>26.11369062123459</v>
       </c>
       <c r="D48">
-        <v>24.98796995620349</v>
+        <v>25.11988403154208</v>
       </c>
       <c r="E48">
-        <v>25.20474699048077</v>
+        <v>25.25753676253662</v>
       </c>
       <c r="F48">
-        <v>25.59562554390387</v>
+        <v>27.2644351019996</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>25.52985574744811</v>
+        <v>25.23292509985757</v>
       </c>
       <c r="C49">
-        <v>27.21400850047644</v>
+        <v>26.31967331989577</v>
       </c>
       <c r="D49">
-        <v>25.24103498071414</v>
+        <v>25.36835147465059</v>
       </c>
       <c r="E49">
-        <v>25.4523309503687</v>
+        <v>25.48438101151736</v>
       </c>
       <c r="F49">
-        <v>25.82750689171822</v>
+        <v>27.47677446828283</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>25.78545672987108</v>
+        <v>25.49275286150216</v>
       </c>
       <c r="C50">
-        <v>27.41927297991212</v>
+        <v>26.52852913439776</v>
       </c>
       <c r="D50">
-        <v>25.50123116287732</v>
+        <v>25.62352030867153</v>
       </c>
       <c r="E50">
-        <v>25.70640014485631</v>
+        <v>25.71708432373352</v>
       </c>
       <c r="F50">
-        <v>26.06496320168629</v>
+        <v>27.68919678021936</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>26.0469579796194</v>
+        <v>25.75965700026988</v>
       </c>
       <c r="C51">
-        <v>27.62749560861382</v>
+        <v>26.74010144114313</v>
       </c>
       <c r="D51">
-        <v>25.76852889673782</v>
+        <v>25.88534570093842</v>
       </c>
       <c r="E51">
-        <v>25.96690287234203</v>
+        <v>25.95562990683185</v>
       </c>
       <c r="F51">
-        <v>26.30795945295277</v>
+        <v>27.90137476428141</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>26.31416224322892</v>
+        <v>26.03359792291845</v>
       </c>
       <c r="C52">
-        <v>27.83863449324627</v>
+        <v>26.95422169761063</v>
       </c>
       <c r="D52">
-        <v>26.04289372956042</v>
+        <v>26.15377691762406</v>
       </c>
       <c r="E52">
-        <v>26.23378007450046</v>
+        <v>26.19999792239262</v>
       </c>
       <c r="F52">
-        <v>26.55645697977641</v>
+        <v>28.11296523236622</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>26.58683578542005</v>
+        <v>26.31452930842133</v>
       </c>
       <c r="C53">
-        <v>28.05264257300235</v>
+        <v>27.17070803759061</v>
       </c>
       <c r="D53">
-        <v>26.32428505844036</v>
+        <v>26.42875600106779</v>
       </c>
       <c r="E53">
-        <v>26.50696305522023</v>
+        <v>26.4501641313305</v>
       </c>
       <c r="F53">
-        <v>26.81041259389228</v>
+        <v>28.3236079252584</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>26.86470140862916</v>
+        <v>26.60239581425409</v>
       </c>
       <c r="C54">
-        <v>28.26946599199113</v>
+        <v>27.38936327976376</v>
       </c>
       <c r="D54">
-        <v>26.61265443170255</v>
+        <v>26.7102160740144</v>
       </c>
       <c r="E54">
-        <v>26.78637093360391</v>
+        <v>26.70609792140663</v>
       </c>
       <c r="F54">
-        <v>27.06977745011968</v>
+        <v>28.53292434641367</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>27.14743036393496</v>
+        <v>26.89713073275206</v>
       </c>
       <c r="C55">
-        <v>28.48904198030952</v>
+        <v>27.60997282153413</v>
       </c>
       <c r="D55">
-        <v>26.90794320905243</v>
+        <v>26.99807916944173</v>
       </c>
       <c r="E55">
-        <v>27.07190839444484</v>
+        <v>26.96775943721745</v>
       </c>
       <c r="F55">
-        <v>27.33449554760276</v>
+        <v>28.74051642804901</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>27.4346333190732</v>
+        <v>27.19865265622953</v>
       </c>
       <c r="C56">
-        <v>28.71129589018447</v>
+        <v>27.83230253264979</v>
       </c>
       <c r="D56">
-        <v>27.21007933373307</v>
+        <v>27.2922534158207</v>
       </c>
       <c r="E56">
-        <v>27.36345995581323</v>
+        <v>27.2350954835798</v>
       </c>
       <c r="F56">
-        <v>27.60450194957318</v>
+        <v>28.94596527790909</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>27.72585007456541</v>
+        <v>27.50686086231576</v>
       </c>
       <c r="C57">
-        <v>28.93613729431162</v>
+        <v>28.0560953113979</v>
       </c>
       <c r="D57">
-        <v>27.5189729377631</v>
+        <v>27.59262929922691</v>
       </c>
       <c r="E57">
-        <v>27.66088499755659</v>
+        <v>27.50803367773716</v>
       </c>
       <c r="F57">
-        <v>27.87971981698045</v>
+        <v>29.14882991149386</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>28.02053808720473</v>
+        <v>27.82162894385603</v>
       </c>
       <c r="C58">
-        <v>29.1634550696838</v>
+        <v>28.28106796085395</v>
       </c>
       <c r="D58">
-        <v>27.8345101717973</v>
+        <v>27.89907515533335</v>
       </c>
       <c r="E58">
-        <v>27.96401048807335</v>
+        <v>27.7864741751941</v>
       </c>
       <c r="F58">
-        <v>28.16005704032688</v>
+        <v>29.3486459755653</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>28.3180599330827</v>
+        <v>28.14279602954316</v>
       </c>
       <c r="C59">
-        <v>29.39311064265953</v>
+        <v>28.50690731459618</v>
       </c>
       <c r="D59">
-        <v>28.15654449501894</v>
+        <v>28.21142977080212</v>
       </c>
       <c r="E59">
-        <v>28.27262122793439</v>
+        <v>28.07027854299087</v>
       </c>
       <c r="F59">
-        <v>28.44540145037734</v>
+        <v>29.54492461590912</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>28.61767000136228</v>
+        <v>28.47015455421413</v>
       </c>
       <c r="C60">
-        <v>29.62492899485524</v>
+        <v>28.73326558110742</v>
       </c>
       <c r="D60">
-        <v>28.4848843909956</v>
+        <v>28.52949378158076</v>
       </c>
       <c r="E60">
-        <v>28.58644688345881</v>
+        <v>28.35925456379229</v>
       </c>
       <c r="F60">
-        <v>28.73561405750885</v>
+        <v>29.73715158410792</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>28.91850093870019</v>
+        <v>28.80343330551067</v>
       </c>
       <c r="C61">
-        <v>29.85868692891134</v>
+        <v>28.95975481992467</v>
       </c>
       <c r="D61">
-        <v>28.81927529924589</v>
+        <v>28.85301743476229</v>
       </c>
       <c r="E61">
-        <v>28.90514442002743</v>
+        <v>28.653136082636</v>
       </c>
       <c r="F61">
-        <v>29.03051955101509</v>
+        <v>29.9247864720694</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>29.21955025249118</v>
+        <v>29.14227174069361</v>
       </c>
       <c r="C62">
-        <v>30.09409805238164</v>
+        <v>29.1859405060199</v>
       </c>
       <c r="D62">
-        <v>29.15937273334128</v>
+        <v>29.18168330574482</v>
       </c>
       <c r="E62">
-        <v>29.22827361073064</v>
+        <v>28.95155671578718</v>
       </c>
       <c r="F62">
-        <v>29.32989287297</v>
+        <v>30.10726254150498</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>29.51966859915211</v>
+        <v>29.48618595862298</v>
       </c>
       <c r="C63">
-        <v>30.33079336311471</v>
+        <v>29.41133407198017</v>
       </c>
       <c r="D63">
-        <v>29.50470539259758</v>
+        <v>29.51508198853692</v>
       </c>
       <c r="E63">
-        <v>29.555267054274</v>
+        <v>29.25401612155101</v>
       </c>
       <c r="F63">
-        <v>29.63343998319236</v>
+        <v>30.28398723227769</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>29.81755045980712</v>
+        <v>29.83451976054264</v>
       </c>
       <c r="C64">
-        <v>30.5682969188091</v>
+        <v>29.63538429866287</v>
       </c>
       <c r="D64">
-        <v>29.85462008300173</v>
+        <v>29.85267797307957</v>
       </c>
       <c r="E64">
-        <v>29.88538933586266</v>
+        <v>29.55983774432913</v>
       </c>
       <c r="F64">
-        <v>29.94077069671384</v>
+        <v>30.45434311000707</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>30.11172982477843</v>
+        <v>30.18637489286665</v>
       </c>
       <c r="C65">
-        <v>30.80599613208503</v>
+        <v>29.85746750519353</v>
       </c>
       <c r="D65">
-        <v>30.20820313981286</v>
+        <v>30.19376198971607</v>
       </c>
       <c r="E65">
-        <v>30.21768297331552</v>
+        <v>29.86811740953427</v>
       </c>
       <c r="F65">
-        <v>30.25135676324966</v>
+        <v>30.61769110068606</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>30.40058347432229</v>
+        <v>30.54051744633756</v>
       </c>
       <c r="C66">
-        <v>31.04310668047322</v>
+        <v>30.0768766566169</v>
       </c>
       <c r="D66">
-        <v>30.56417453694886</v>
+        <v>30.53738000584396</v>
       </c>
       <c r="E66">
-        <v>30.55090030651603</v>
+        <v>30.17766328825876</v>
       </c>
       <c r="F66">
-        <v>30.56447557062718</v>
+        <v>30.77337436501842</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>30.6823412330239</v>
+        <v>30.89525273569439</v>
       </c>
       <c r="C67">
-        <v>31.27863259015951</v>
+        <v>30.29280978731968</v>
       </c>
       <c r="D67">
-        <v>30.9207478525326</v>
+        <v>30.88223952401863</v>
       </c>
       <c r="E67">
-        <v>30.8834208229099</v>
+        <v>30.48692980796855</v>
       </c>
       <c r="F67">
-        <v>30.87912773086147</v>
+        <v>30.92072418728899</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>30.95510828649975</v>
+        <v>31.24827171727889</v>
       </c>
       <c r="C68">
-        <v>31.51132413561139</v>
+        <v>30.50435832917118</v>
       </c>
       <c r="D68">
-        <v>31.27546202233907</v>
+        <v>31.22657842329825</v>
       </c>
       <c r="E68">
-        <v>31.21315429461329</v>
+        <v>30.79395148801217</v>
       </c>
       <c r="F68">
-        <v>31.19392419585179</v>
+        <v>31.05906852890108</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>31.2169006209328</v>
+        <v>31.59647684327157</v>
       </c>
       <c r="C69">
-        <v>31.7396380247105</v>
+        <v>30.71049720620646</v>
       </c>
       <c r="D69">
-        <v>31.62500285090278</v>
+        <v>31.5679959835018</v>
       </c>
       <c r="E69">
-        <v>31.53743957384957</v>
+        <v>31.09628641116525</v>
       </c>
       <c r="F69">
-        <v>31.50694055485243</v>
+        <v>31.18774346823038</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31.46569463373515</v>
+        <v>31.93582091250735</v>
       </c>
       <c r="C70">
-        <v>31.96170693483712</v>
+        <v>30.9100790876725</v>
       </c>
       <c r="D70">
-        <v>31.96505565874184</v>
+        <v>31.9032555176624</v>
       </c>
       <c r="E70">
-        <v>31.85295584966971</v>
+        <v>31.390985875665</v>
       </c>
       <c r="F70">
-        <v>31.81554388950897</v>
+        <v>31.30610758865874</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>31.69948939687015</v>
+        <v>32.26121988510948</v>
       </c>
       <c r="C71">
-        <v>32.1753294056215</v>
+        <v>31.10183605602322</v>
       </c>
       <c r="D71">
-        <v>32.29025800095955</v>
+        <v>32.22809072187104</v>
       </c>
       <c r="E71">
-        <v>32.15568050576048</v>
+        <v>31.67461017958105</v>
       </c>
       <c r="F71">
-        <v>32.11622036605181</v>
+        <v>31.41355927728675</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>31.91637987886753</v>
+        <v>32.56662604541317</v>
       </c>
       <c r="C72">
-        <v>32.37799211559313</v>
+        <v>31.28439324368398</v>
       </c>
       <c r="D72">
-        <v>32.5943423610213</v>
+        <v>32.53709645688437</v>
       </c>
       <c r="E72">
-        <v>32.44093859653008</v>
+        <v>31.94332058836864</v>
       </c>
       <c r="F72">
-        <v>32.40446117057364</v>
+        <v>31.50955655487008</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>32.11463574554529</v>
+        <v>32.84536119440639</v>
       </c>
       <c r="C73">
-        <v>32.5669442074957</v>
+        <v>31.45630154154569</v>
       </c>
       <c r="D73">
-        <v>32.87055203666166</v>
+        <v>32.82382332578931</v>
       </c>
       <c r="E73">
-        <v>32.70359061217491</v>
+        <v>32.19304952273071</v>
       </c>
       <c r="F73">
-        <v>32.67479458989469</v>
+        <v>31.59363845270772</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>32.29278009207335</v>
+        <v>33.09076227420203</v>
       </c>
       <c r="C74">
-        <v>32.73932176702787</v>
+        <v>31.61608971544191</v>
       </c>
       <c r="D74">
-        <v>33.11235074690553</v>
+        <v>33.08120934764719</v>
       </c>
       <c r="E74">
-        <v>32.93840276061064</v>
+        <v>32.41976865352167</v>
       </c>
       <c r="F74">
-        <v>32.92106687429428</v>
+        <v>31.66544635192005</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>32.44965946429103</v>
+        <v>33.29707602402746</v>
       </c>
       <c r="C75">
-        <v>32.89233271085319</v>
+        <v>31.76233897759779</v>
       </c>
       <c r="D75">
-        <v>33.31432376814053</v>
+        <v>33.30241152088639</v>
       </c>
       <c r="E75">
-        <v>33.14058284420403</v>
+        <v>32.61982302541706</v>
       </c>
       <c r="F75">
-        <v>33.13703413723279</v>
+        <v>31.72474318292291</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>32.58449766404645</v>
+        <v>33.46038541755665</v>
       </c>
       <c r="C76">
-        <v>33.02348313345508</v>
+        <v>31.89377181071597</v>
       </c>
       <c r="D76">
-        <v>33.47303328676856</v>
+        <v>33.48190982616822</v>
       </c>
       <c r="E76">
-        <v>33.30639706186151</v>
+        <v>32.79028104543562</v>
       </c>
       <c r="F76">
-        <v>33.3172145391849</v>
+        <v>31.7714275148317</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>32.6969280392842</v>
+        <v>33.57925837420007</v>
       </c>
       <c r="C77">
-        <v>33.13080990061965</v>
+        <v>32.00934177043825</v>
       </c>
       <c r="D77">
-        <v>33.58754086618294</v>
+        <v>33.61654663596568</v>
       </c>
       <c r="E77">
-        <v>33.43371204043865</v>
+        <v>32.92923108417036</v>
       </c>
       <c r="F77">
-        <v>33.45779586852695</v>
+        <v>31.80554138954125</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>32.78699634908961</v>
+        <v>33.65487840375265</v>
       </c>
       <c r="C78">
-        <v>33.21307759322401</v>
+        <v>32.10830744386795</v>
       </c>
       <c r="D78">
-        <v>33.65941388551986</v>
+        <v>33.70609140235806</v>
       </c>
       <c r="E78">
-        <v>33.52229434917606</v>
+        <v>33.03595501386766</v>
       </c>
       <c r="F78">
-        <v>33.55729136431345</v>
+        <v>31.8272704517105</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>32.85514223409275</v>
+        <v>33.69063214009942</v>
       </c>
       <c r="C79">
-        <v>33.26989551883975</v>
+        <v>32.19027598897613</v>
       </c>
       <c r="D79">
-        <v>33.69224453857176</v>
+        <v>33.75310312191155</v>
       </c>
       <c r="E79">
-        <v>33.57375952155939</v>
+        <v>33.11094091593878</v>
       </c>
       <c r="F79">
-        <v>33.61669762039344</v>
+        <v>31.83693528763686</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>32.90215611496024</v>
+        <v>33.69134762153712</v>
       </c>
       <c r="C80">
-        <v>33.30172880936754</v>
+        <v>32.255209943715</v>
       </c>
       <c r="D80">
-        <v>33.69089174139076</v>
+        <v>33.76219856470641</v>
       </c>
       <c r="E80">
-        <v>33.59122028283836</v>
+        <v>33.15574027616418</v>
       </c>
       <c r="F80">
-        <v>33.63911767221811</v>
+        <v>31.83497604467887</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>32.92911787788812</v>
+        <v>33.66246635824259</v>
       </c>
       <c r="C81">
-        <v>33.30980543271435</v>
+        <v>32.30340033163356</v>
       </c>
       <c r="D81">
-        <v>33.66070408354839</v>
+        <v>33.73906528442656</v>
       </c>
       <c r="E81">
-        <v>33.57874146221923</v>
+        <v>33.17271447057158</v>
       </c>
       <c r="F81">
-        <v>33.62903824500796</v>
+        <v>31.82193129590681</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>32.9373271737881</v>
+        <v>33.60936676558712</v>
       </c>
       <c r="C82">
-        <v>33.29594519204536</v>
+        <v>32.33541570092152</v>
       </c>
       <c r="D82">
-        <v>33.6069060344599</v>
+        <v>33.68956624963884</v>
       </c>
       <c r="E82">
-        <v>33.54077882612994</v>
+        <v>33.16473463602033</v>
       </c>
       <c r="F82">
-        <v>33.59153619448406</v>
+        <v>31.79841422258729</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>32.92823126117595</v>
+        <v>33.53692955374737</v>
       </c>
       <c r="C83">
-        <v>33.26235150282347</v>
+        <v>32.35203903723148</v>
       </c>
       <c r="D83">
-        <v>33.5342136645172</v>
+        <v>33.61912296040283</v>
       </c>
       <c r="E83">
-        <v>33.48171877879271</v>
+        <v>33.13489436347377</v>
       </c>
       <c r="F83">
-        <v>33.53163118090148</v>
+        <v>31.76508822685953</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>32.90335628070896</v>
+        <v>33.4493309743956</v>
       </c>
       <c r="C84">
-        <v>33.21140612264409</v>
+        <v>32.35420291605272</v>
       </c>
       <c r="D84">
-        <v>33.44665743804981</v>
+        <v>33.532399437109</v>
       </c>
       <c r="E84">
-        <v>33.40557360559276</v>
+        <v>33.08627485093047</v>
       </c>
       <c r="F84">
-        <v>33.4538719017115</v>
+        <v>31.72264401753544</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>32.86424738102433</v>
+        <v>33.35000058500103</v>
       </c>
       <c r="C85">
-        <v>33.14549619986139</v>
+        <v>32.34293014499107</v>
       </c>
       <c r="D85">
-        <v>33.34755180405355</v>
+        <v>33.43321493140758</v>
       </c>
       <c r="E85">
-        <v>33.31582580228494</v>
+        <v>33.02177869693119</v>
       </c>
       <c r="F85">
-        <v>33.36214220511846</v>
+        <v>31.67177949342835</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>32.81241963571883</v>
+        <v>33.24167508984716</v>
       </c>
       <c r="C86">
-        <v>33.06688717762439</v>
+        <v>32.31928371141576</v>
       </c>
       <c r="D86">
-        <v>33.23954972447752</v>
+        <v>33.32459297869754</v>
       </c>
       <c r="E86">
-        <v>33.21538531804759</v>
+        <v>32.94403042275812</v>
       </c>
       <c r="F86">
-        <v>33.25962370375343</v>
+        <v>31.61318330396562</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>32.74932082952799</v>
+        <v>33.12649556003095</v>
       </c>
       <c r="C87">
-        <v>32.97764289786031</v>
+        <v>32.28432737081764</v>
       </c>
       <c r="D87">
-        <v>33.12473528304945</v>
+        <v>33.20887331517422</v>
       </c>
       <c r="E87">
-        <v>33.10661794449179</v>
+        <v>32.85533133260829</v>
       </c>
       <c r="F87">
-        <v>33.14884906690819</v>
+        <v>31.54752211526539</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>32.67630572634999</v>
+        <v>33.00611491282531</v>
       </c>
       <c r="C88">
-        <v>32.87958586360413</v>
+        <v>32.23909655331835</v>
       </c>
       <c r="D88">
-        <v>33.00472488098114</v>
+        <v>33.08783950535587</v>
       </c>
       <c r="E88">
-        <v>32.9914095343873</v>
+        <v>32.75765312624272</v>
       </c>
       <c r="F88">
-        <v>33.03179524300984</v>
+        <v>31.47543135358016</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>32.59462019215241</v>
+        <v>32.88179849385089</v>
       </c>
       <c r="C89">
-        <v>32.77428771091935</v>
+        <v>32.18457821806555</v>
       </c>
       <c r="D89">
-        <v>32.88076227493847</v>
+        <v>32.96283864730635</v>
       </c>
       <c r="E89">
-        <v>32.87124250359801</v>
+        <v>32.65265596584797</v>
       </c>
       <c r="F89">
-        <v>32.90998530428478</v>
+        <v>31.39750925142038</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>32.50539369875734</v>
+        <v>32.75451043281277</v>
       </c>
       <c r="C90">
-        <v>32.66307922328006</v>
+        <v>32.12169809215146</v>
       </c>
       <c r="D90">
-        <v>32.75379974546507</v>
+        <v>32.8348828214689</v>
       </c>
       <c r="E90">
-        <v>32.74727178553974</v>
+        <v>32.541719672104</v>
       </c>
       <c r="F90">
-        <v>32.7845830406841</v>
+        <v>31.31431321351568</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>32.40963812437437</v>
+        <v>32.62498282712452</v>
       </c>
       <c r="C91">
-        <v>32.54707177656771</v>
+        <v>32.05131365219265</v>
       </c>
       <c r="D91">
-        <v>32.62456464013832</v>
+        <v>32.70473022888235</v>
       </c>
       <c r="E91">
-        <v>32.62039144045357</v>
+        <v>32.42598013848223</v>
       </c>
       <c r="F91">
-        <v>32.65647375516099</v>
+        <v>31.22635840745352</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>32.30825111780648</v>
+        <v>32.49377141696336</v>
       </c>
       <c r="C92">
-        <v>32.4271839362823</v>
+        <v>31.97421141374464</v>
       </c>
       <c r="D92">
-        <v>32.49361156029764</v>
+        <v>32.57294863079849</v>
       </c>
       <c r="E92">
-        <v>32.49129090535889</v>
+        <v>32.3063659566855</v>
       </c>
       <c r="F92">
-        <v>32.52632881105924</v>
+        <v>31.13411779465247</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>32.20202261623701</v>
+        <v>32.36129824663684</v>
       </c>
       <c r="C93">
-        <v>32.30416903235855</v>
+        <v>31.89110723957873</v>
       </c>
       <c r="D93">
-        <v>32.36136363885021</v>
+        <v>32.4399634757475</v>
       </c>
       <c r="E93">
-        <v>32.36050101432408</v>
+        <v>32.18363269120167</v>
       </c>
       <c r="F93">
-        <v>32.39465730883688</v>
+        <v>31.03802324250346</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>32.0916432030515</v>
+        <v>32.22788418527781</v>
       </c>
       <c r="C94">
-        <v>32.17864147596701</v>
+        <v>31.80264863496782</v>
       </c>
       <c r="D94">
-        <v>32.22814442732514</v>
+        <v>32.30609431888955</v>
       </c>
       <c r="E94">
-        <v>32.22843021545619</v>
+        <v>32.0583932148477</v>
       </c>
       <c r="F94">
-        <v>32.2618454107493</v>
+        <v>30.93846742020377</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31.97771328091509</v>
+        <v>32.09377387232394</v>
       </c>
       <c r="C95">
-        <v>32.05110056157193</v>
+        <v>31.70941849910522</v>
       </c>
       <c r="D95">
-        <v>32.0942016251642</v>
+        <v>32.17158159295573</v>
       </c>
       <c r="E95">
-        <v>32.09539294756615</v>
+        <v>31.93114353938463</v>
       </c>
       <c r="F95">
-        <v>32.12818663511344</v>
+        <v>30.83580610756978</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31.86075250418624</v>
+        <v>31.95915414024012</v>
       </c>
       <c r="C96">
-        <v>31.92195096328944</v>
+        <v>31.61193982190442</v>
       </c>
       <c r="D96">
-        <v>31.95972526007005</v>
+        <v>32.03660690560702</v>
       </c>
       <c r="E96">
-        <v>31.96163161662557</v>
+        <v>31.80228469612968</v>
       </c>
       <c r="F96">
-        <v>31.99390446263793</v>
+        <v>30.73036080763458</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31.7412091772823</v>
+        <v>31.82416816069141</v>
       </c>
       <c r="C97">
-        <v>31.79152006296286</v>
+        <v>31.51068039116811</v>
       </c>
       <c r="D97">
-        <v>31.82486160310655</v>
+        <v>31.90130777103165</v>
       </c>
       <c r="E97">
-        <v>31.82733343070741</v>
+        <v>31.67214086782175</v>
       </c>
       <c r="F97">
-        <v>31.85916957967218</v>
+        <v>30.62242141125367</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31.61946906207842</v>
+        <v>31.68892600544611</v>
       </c>
       <c r="C98">
-        <v>31.66007255436405</v>
+        <v>31.40605766842138</v>
       </c>
       <c r="D98">
-        <v>31.68972360177439</v>
+        <v>31.76578875022136</v>
       </c>
       <c r="E98">
-        <v>31.69264327018737</v>
+        <v>31.540974187873</v>
       </c>
       <c r="F98">
-        <v>31.72411270313723</v>
+        <v>30.5122488664367</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31.49586335811427</v>
+        <v>31.55351249544117</v>
       </c>
       <c r="C99">
-        <v>31.52782247134709</v>
+        <v>31.29844364985909</v>
       </c>
       <c r="D99">
-        <v>31.55439868022253</v>
+        <v>31.63012958430647</v>
       </c>
       <c r="E99">
-        <v>31.55767352003773</v>
+        <v>31.40899677888695</v>
       </c>
       <c r="F99">
-        <v>31.58883426473164</v>
+        <v>30.40007780590657</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31.37067591985119</v>
+        <v>31.41799328111775</v>
       </c>
       <c r="C100">
-        <v>31.39494292703408</v>
+        <v>31.18816947799338</v>
       </c>
       <c r="D100">
-        <v>31.41895472729965</v>
+        <v>31.49439133639297</v>
       </c>
       <c r="E100">
-        <v>31.42251155139158</v>
+        <v>31.27638045610364</v>
       </c>
       <c r="F100">
-        <v>31.45341167671657</v>
+        <v>30.28611902731924</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>31.24414975775671</v>
+        <v>31.28241930082453</v>
       </c>
       <c r="C101">
-        <v>31.26157404180421</v>
+        <v>31.07552969513831</v>
       </c>
       <c r="D101">
-        <v>31.28344466986293</v>
+        <v>31.35862088225015</v>
       </c>
       <c r="E101">
-        <v>31.28722563920492</v>
+        <v>31.14326458935041</v>
       </c>
       <c r="F101">
-        <v>31.31790480336381</v>
+        <v>30.17056179683764</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>31.1164927912628</v>
+        <v>31.14683020750399</v>
       </c>
       <c r="C102">
-        <v>31.12782934445065</v>
+        <v>30.96078618908712</v>
       </c>
       <c r="D102">
-        <v>31.14790987279233</v>
+        <v>31.22285433360907</v>
       </c>
       <c r="E102">
-        <v>31.15186927565787</v>
+        <v>31.00976242975507</v>
       </c>
       <c r="F102">
-        <v>31.18236008789074</v>
+        <v>30.05357597236421</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>30.98788285200657</v>
+        <v>31.01125698584066</v>
       </c>
       <c r="C103">
-        <v>30.99380094393776</v>
+        <v>30.84417178864559</v>
       </c>
       <c r="D103">
-        <v>31.01238276067959</v>
+        <v>31.08711972060452</v>
       </c>
       <c r="E103">
-        <v>31.01648433999909</v>
+        <v>30.87596613181038</v>
       </c>
       <c r="F103">
-        <v>31.04681362475415</v>
+        <v>29.93531397131453</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>30.85847200947804</v>
+        <v>30.87572385586871</v>
       </c>
       <c r="C104">
-        <v>30.85956370118627</v>
+        <v>30.7258935114176</v>
       </c>
       <c r="D104">
-        <v>30.87688885109443</v>
+        <v>30.95143886700811</v>
       </c>
       <c r="E104">
-        <v>30.88110371555355</v>
+        <v>30.74195082092693</v>
       </c>
       <c r="F104">
-        <v>30.91129363316897</v>
+        <v>29.8159125650019</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>30.72839031248001</v>
+        <v>30.74024985909705</v>
       </c>
       <c r="C105">
-        <v>30.72517853069476</v>
+        <v>30.60613546477414</v>
       </c>
       <c r="D105">
-        <v>30.74144823736814</v>
+        <v>30.81582872214881</v>
       </c>
       <c r="E105">
-        <v>30.74575336287868</v>
+        <v>30.60777785014579</v>
       </c>
       <c r="F105">
-        <v>30.77582230499075</v>
+        <v>29.69549450618084</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>30.59774901645936</v>
+        <v>30.6048500860852</v>
       </c>
       <c r="C106">
-        <v>30.59069508576723</v>
+        <v>30.48506144239927</v>
       </c>
       <c r="D106">
-        <v>30.60607681410398</v>
+        <v>30.68030246000064</v>
       </c>
       <c r="E106">
-        <v>30.61045385830221</v>
+        <v>30.47349741872034</v>
       </c>
       <c r="F106">
-        <v>30.6404170842191</v>
+        <v>29.5741699950801</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>30.4666433495187</v>
+        <v>30.46953648642651</v>
       </c>
       <c r="C107">
-        <v>30.45615390938617</v>
+        <v>30.36281725284579</v>
       </c>
       <c r="D107">
-        <v>30.47078724222818</v>
+        <v>30.54487039501735</v>
       </c>
       <c r="E107">
-        <v>30.47522152241868</v>
+        <v>30.33915069034677</v>
       </c>
       <c r="F107">
-        <v>30.50509165277152</v>
+        <v>29.4520379967866</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>30.335154872186</v>
+        <v>30.33431849079873</v>
       </c>
       <c r="C108">
-        <v>30.32158815941731</v>
+        <v>30.23953287998175</v>
       </c>
       <c r="D108">
-        <v>30.33558962149246</v>
+        <v>30.4095406591017</v>
       </c>
       <c r="E108">
-        <v>30.34006931470386</v>
+        <v>30.20477147037428</v>
       </c>
       <c r="F108">
-        <v>30.36985677856459</v>
+        <v>29.32918742444973</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>30.20335348930234</v>
+        <v>30.19920355060872</v>
       </c>
       <c r="C109">
-        <v>30.18702501216377</v>
+        <v>30.11532424119768</v>
       </c>
       <c r="D109">
-        <v>30.20049200419058</v>
+        <v>30.27431967049838</v>
       </c>
       <c r="E109">
-        <v>30.20500752851883</v>
+        <v>30.07038757632322</v>
       </c>
       <c r="F109">
-        <v>30.23472100078823</v>
+        <v>29.20569820005566</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>30.07129916514291</v>
+        <v>30.06419758647367</v>
       </c>
       <c r="C110">
-        <v>30.05248676977951</v>
+        <v>29.99029471011388</v>
       </c>
       <c r="D110">
-        <v>30.06550079443847</v>
+        <v>30.13921248465054</v>
       </c>
       <c r="E110">
-        <v>30.07004440992785</v>
+        <v>29.93602189985966</v>
       </c>
       <c r="F110">
-        <v>30.09969112384925</v>
+        <v>29.08164220569898</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>29.93904338635643</v>
+        <v>29.92930533238275</v>
       </c>
       <c r="C111">
-        <v>29.9179917443861</v>
+        <v>29.86453658368172</v>
       </c>
       <c r="D111">
-        <v>29.93062109579757</v>
+        <v>30.00422307097136</v>
       </c>
       <c r="E111">
-        <v>29.93518657439557</v>
+        <v>29.80169336509369</v>
       </c>
       <c r="F111">
-        <v>29.96477256623939</v>
+        <v>28.95708413292718</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>29.80663040662705</v>
+        <v>29.79453058572864</v>
       </c>
       <c r="C112">
-        <v>29.78355501786762</v>
+        <v>29.73813236188233</v>
       </c>
       <c r="D112">
-        <v>29.79585699977428</v>
+        <v>29.86935458236347</v>
       </c>
       <c r="E112">
-        <v>29.80043931502138</v>
+        <v>29.66741766481432</v>
       </c>
       <c r="F112">
-        <v>29.82996963448147</v>
+        <v>28.83208223596995</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>29.67409829980658</v>
+        <v>29.65987638685308</v>
       </c>
       <c r="C113">
-        <v>29.64918904613323</v>
+        <v>29.61115586560768</v>
       </c>
       <c r="D113">
-        <v>29.66121181473373</v>
+        <v>29.7346094863431</v>
       </c>
       <c r="E113">
-        <v>29.66580701110492</v>
+        <v>29.53320781319631</v>
       </c>
       <c r="F113">
-        <v>29.69528573258528</v>
+        <v>28.70668900855481</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>29.54147985936955</v>
+        <v>29.52534516401729</v>
       </c>
       <c r="C114">
-        <v>29.51490411960532</v>
+        <v>29.48367322901958</v>
       </c>
       <c r="D114">
-        <v>29.52668820813224</v>
+        <v>29.59998981705859</v>
       </c>
       <c r="E114">
-        <v>29.53129306323173</v>
+        <v>29.39907461261824</v>
       </c>
       <c r="F114">
-        <v>29.56072360572315</v>
+        <v>28.5809517863373</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>29.40880336253586</v>
+        <v>29.39093883922625</v>
       </c>
       <c r="C115">
-        <v>29.38070883544611</v>
+        <v>29.35574376019925</v>
       </c>
       <c r="D115">
-        <v>29.39228832458168</v>
+        <v>29.46549716722998</v>
       </c>
       <c r="E115">
-        <v>29.39690020943865</v>
+        <v>29.26502705928034</v>
       </c>
       <c r="F115">
-        <v>29.42628543780216</v>
+        <v>28.45491328422982</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>29.27609321233058</v>
+        <v>29.2566589687267</v>
       </c>
       <c r="C116">
-        <v>29.24661023813878</v>
+        <v>29.22742066666077</v>
       </c>
       <c r="D116">
-        <v>29.25801388495588</v>
+        <v>29.33113276915028</v>
       </c>
       <c r="E116">
-        <v>29.26263064858114</v>
+        <v>29.13107257178866</v>
       </c>
       <c r="F116">
-        <v>29.29197298383144</v>
+        <v>28.32861207545766</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>29.14337048296267</v>
+        <v>29.12250675363104</v>
       </c>
       <c r="C117">
-        <v>29.11261415209374</v>
+        <v>29.09875174479308</v>
       </c>
       <c r="D117">
-        <v>29.12386625445565</v>
+        <v>29.19689763921092</v>
       </c>
       <c r="E117">
-        <v>29.12848615333069</v>
+        <v>28.99721734622712</v>
       </c>
       <c r="F117">
-        <v>29.15778770330422</v>
+        <v>28.20208301869406</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>29.01065339748049</v>
+        <v>28.98848324422536</v>
       </c>
       <c r="C118">
-        <v>28.97872541210707</v>
+        <v>28.96977997781273</v>
       </c>
       <c r="D118">
-        <v>28.98984655440911</v>
+        <v>29.06279252153756</v>
       </c>
       <c r="E118">
-        <v>28.99446816120682</v>
+        <v>28.86346656125527</v>
       </c>
       <c r="F118">
-        <v>29.02373068525283</v>
+        <v>28.07535763105253</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>28.87795783691497</v>
+        <v>28.85458919404102</v>
       </c>
       <c r="C119">
-        <v>28.84494803820931</v>
+        <v>28.84054406169405</v>
       </c>
       <c r="D119">
-        <v>28.8559556414062</v>
+        <v>28.9288180077281</v>
       </c>
       <c r="E119">
-        <v>28.86057782783399</v>
+        <v>28.72982455107746</v>
       </c>
       <c r="F119">
-        <v>28.88980283995737</v>
+        <v>27.9484644267286</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>28.74529752017778</v>
+        <v>28.7208252811942</v>
       </c>
       <c r="C120">
-        <v>28.71128539125386</v>
+        <v>28.71107886586693</v>
       </c>
       <c r="D120">
-        <v>28.7221942794109</v>
+        <v>28.79497455838315</v>
       </c>
       <c r="E120">
-        <v>28.7268160930606</v>
+        <v>28.59629495709181</v>
       </c>
       <c r="F120">
-        <v>28.75600484922697</v>
+        <v>27.82142923213395</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>28.61268436293677</v>
+        <v>28.58719197838121</v>
       </c>
       <c r="C121">
-        <v>28.57774026483861</v>
+        <v>28.58141585577427</v>
       </c>
       <c r="D121">
-        <v>28.58856300062439</v>
+        <v>28.66126253166222</v>
       </c>
       <c r="E121">
-        <v>28.5931836980829</v>
+        <v>28.4628808080826</v>
       </c>
       <c r="F121">
-        <v>28.62233725276836</v>
+        <v>27.69427551093603</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>28.48012877302128</v>
+        <v>28.45368967118777</v>
       </c>
       <c r="C122">
-        <v>28.4443149825386</v>
+        <v>28.45158343470619</v>
       </c>
       <c r="D122">
-        <v>28.45506230430619</v>
+        <v>28.52768219338321</v>
       </c>
       <c r="E122">
-        <v>28.45968122583439</v>
+        <v>28.32958463781279</v>
       </c>
       <c r="F122">
-        <v>28.48880047496234</v>
+        <v>27.56702446787989</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>28.34763972561173</v>
+        <v>28.32031864578103</v>
       </c>
       <c r="C123">
-        <v>28.31101147513647</v>
+        <v>28.32160727540296</v>
       </c>
       <c r="D123">
-        <v>28.32169251432283</v>
+        <v>28.39423375411921</v>
       </c>
       <c r="E123">
-        <v>28.32630913638432</v>
+        <v>28.19640856624834</v>
       </c>
       <c r="F123">
-        <v>28.35539484791821</v>
+        <v>27.43969547260961</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>28.21522505521239</v>
+        <v>28.18707911091336</v>
       </c>
       <c r="C124">
-        <v>28.17783134830706</v>
+        <v>28.19151060613468</v>
       </c>
       <c r="D124">
-        <v>28.18845391569286</v>
+        <v>28.260917350779</v>
       </c>
       <c r="E124">
-        <v>28.19306778224265</v>
+        <v>28.06335434902406</v>
       </c>
       <c r="F124">
-        <v>28.22212061782736</v>
+        <v>27.31230601513467</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>28.08289161102445</v>
+        <v>28.05397122297468</v>
       </c>
       <c r="C125">
-        <v>28.04477592729537</v>
+        <v>28.06131446409058</v>
       </c>
       <c r="D125">
-        <v>28.05534669569625</v>
+        <v>28.12773307505786</v>
       </c>
       <c r="E125">
-        <v>28.05995744102924</v>
+        <v>27.93042348604807</v>
       </c>
       <c r="F125">
-        <v>28.0889779819761</v>
+        <v>27.18487202334819</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>27.95064537203102</v>
+        <v>27.92099508865332</v>
       </c>
       <c r="C126">
-        <v>27.91184630142429</v>
+        <v>27.93103791903274</v>
       </c>
       <c r="D126">
-        <v>27.92237099673178</v>
+        <v>27.99468097931966</v>
       </c>
       <c r="E126">
-        <v>27.92697832184498</v>
+        <v>27.79761718469104</v>
       </c>
       <c r="F126">
-        <v>27.95596706768415</v>
+        <v>27.05740798901951</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>27.81849155912104</v>
+        <v>27.78815078175029</v>
       </c>
       <c r="C127">
-        <v>27.77904340774345</v>
+        <v>27.80069827801117</v>
       </c>
       <c r="D127">
-        <v>27.78952691628423</v>
+        <v>27.86176108311902</v>
       </c>
       <c r="E127">
-        <v>27.79413057034131</v>
+        <v>27.66493652563024</v>
       </c>
       <c r="F127">
-        <v>27.82308796161432</v>
+        <v>26.92992707783321</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>27.6864347618413</v>
+        <v>27.65543834232653</v>
       </c>
       <c r="C128">
-        <v>27.64636795606421</v>
+        <v>27.67031124441012</v>
       </c>
       <c r="D128">
-        <v>27.65681451156942</v>
+        <v>27.72897338046213</v>
       </c>
       <c r="E128">
-        <v>27.66141432359159</v>
+        <v>27.53238236261371</v>
       </c>
       <c r="F128">
-        <v>27.69034071274248</v>
+        <v>26.80244130938917</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>27.55447898317717</v>
+        <v>27.5228577790492</v>
       </c>
       <c r="C129">
-        <v>27.5138206505387</v>
+        <v>27.53989110288968</v>
       </c>
       <c r="D129">
-        <v>27.52423382220755</v>
+        <v>27.59631784726936</v>
       </c>
       <c r="E129">
-        <v>27.52882962214501</v>
+        <v>27.39995543977776</v>
       </c>
       <c r="F129">
-        <v>27.55772533875688</v>
+        <v>26.67496163774017</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>27.42262772750772</v>
+        <v>27.39040908374045</v>
       </c>
       <c r="C130">
-        <v>27.38140192827131</v>
+        <v>27.40945082642147</v>
       </c>
       <c r="D130">
-        <v>27.3917848498139</v>
+        <v>27.46379444046037</v>
       </c>
       <c r="E130">
-        <v>27.39637654396276</v>
+        <v>27.26765636930983</v>
       </c>
       <c r="F130">
-        <v>27.42524183343519</v>
+        <v>26.54749804226539</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>27.29088407255043</v>
+        <v>27.25809222149487</v>
       </c>
       <c r="C131">
-        <v>27.24911229924465</v>
+        <v>27.27900230199199</v>
       </c>
       <c r="D131">
-        <v>27.25946758916247</v>
+        <v>27.33140310237054</v>
       </c>
       <c r="E131">
-        <v>27.26405506947549</v>
+        <v>27.13548563119296</v>
       </c>
       <c r="F131">
-        <v>27.29289017245654</v>
+        <v>26.42005966794687</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>27.15925071935558</v>
+        <v>27.12590714438103</v>
       </c>
       <c r="C132">
-        <v>27.11695203763934</v>
+        <v>27.14855626611005</v>
       </c>
       <c r="D132">
-        <v>27.12728200363075</v>
+        <v>27.19914376432244</v>
       </c>
       <c r="E132">
-        <v>27.13186520703577</v>
+        <v>27.00344364142172</v>
       </c>
       <c r="F132">
-        <v>27.16067031277872</v>
+        <v>26.29265483393091</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>27.02773003848834</v>
+        <v>26.99385379040041</v>
       </c>
       <c r="C133">
-        <v>26.98492145761155</v>
+        <v>27.01812264583481</v>
       </c>
       <c r="D133">
-        <v>26.99522804944029</v>
+        <v>27.06701634585119</v>
       </c>
       <c r="E133">
-        <v>26.99980691138252</v>
+        <v>26.87153070611036</v>
       </c>
       <c r="F133">
-        <v>27.02858219949026</v>
+        <v>26.1652911611075</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>26.89632409573154</v>
+        <v>26.86193208709426</v>
       </c>
       <c r="C134">
-        <v>26.85302074381923</v>
+        <v>26.8877103752121</v>
       </c>
       <c r="D134">
-        <v>26.86330566395308</v>
+        <v>26.93502075830405</v>
       </c>
       <c r="E134">
-        <v>26.86788013596057</v>
+        <v>26.73974708570536</v>
       </c>
       <c r="F134">
-        <v>26.89662576412035</v>
+        <v>26.03797561422577</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>26.76503473983781</v>
+        <v>26.73014195458541</v>
       </c>
       <c r="C135">
-        <v>26.72125005677109</v>
+        <v>26.75732770682731</v>
       </c>
       <c r="D135">
-        <v>26.73151477615658</v>
+        <v>26.8031569070736</v>
       </c>
       <c r="E135">
-        <v>26.73608481680209</v>
+        <v>26.60809297829477</v>
       </c>
       <c r="F135">
-        <v>26.76480092825811</v>
+        <v>25.91071455970716</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>26.6338635630978</v>
+        <v>26.59848330378166</v>
       </c>
       <c r="C136">
-        <v>26.58960950719684</v>
+        <v>26.6269821141023</v>
       </c>
       <c r="D136">
-        <v>26.59985530574387</v>
+        <v>26.67142469088577</v>
       </c>
       <c r="E136">
-        <v>26.6044208814642</v>
+        <v>26.47656854079497</v>
       </c>
       <c r="F136">
-        <v>26.63310760550161</v>
+        <v>25.78351384044332</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>26.50281199666396</v>
+        <v>26.46695604203829</v>
       </c>
       <c r="C137">
-        <v>26.45809917334116</v>
+        <v>26.49668047222499</v>
       </c>
       <c r="D137">
-        <v>26.46832716484918</v>
+        <v>26.53982400469414</v>
       </c>
       <c r="E137">
-        <v>26.47288824732736</v>
+        <v>26.34517389151081</v>
       </c>
       <c r="F137">
-        <v>26.50154570242697</v>
+        <v>25.65637880132366</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>26.37188130935042</v>
+        <v>26.33556006858508</v>
       </c>
       <c r="C138">
-        <v>26.32671910387463</v>
+        <v>26.36642905859893</v>
       </c>
       <c r="D138">
-        <v>26.33693026126705</v>
+        <v>26.40835474108915</v>
       </c>
       <c r="E138">
-        <v>26.34148682953795</v>
+        <v>26.21390912263838</v>
       </c>
       <c r="F138">
-        <v>26.3701151190858</v>
+        <v>25.52931434348904</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>26.24107257636383</v>
+        <v>26.20429527970544</v>
       </c>
       <c r="C139">
-        <v>26.19546932699835</v>
+        <v>26.2362336314489</v>
       </c>
       <c r="D139">
-        <v>26.20566449555357</v>
+        <v>26.2770167856907</v>
       </c>
       <c r="E139">
-        <v>26.21021653469897</v>
+        <v>26.08277428693596</v>
       </c>
       <c r="F139">
-        <v>26.23881575283556</v>
+        <v>25.40232497048146</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>26.110386811216</v>
+        <v>26.07316156663665</v>
       </c>
       <c r="C140">
-        <v>26.0643498518615</v>
+        <v>26.10609948333283</v>
       </c>
       <c r="D140">
-        <v>26.07452976640879</v>
+        <v>26.14581002701816</v>
       </c>
       <c r="E140">
-        <v>26.07907726410645</v>
+        <v>25.95176942650645</v>
       </c>
       <c r="F140">
-        <v>26.10764749526563</v>
+        <v>25.27541480500136</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>25.97982482508718</v>
+        <v>25.94215881784513</v>
       </c>
       <c r="C141">
-        <v>25.93336066280144</v>
+        <v>25.97603144883246</v>
       </c>
       <c r="D141">
-        <v>25.94352596622366</v>
+        <v>26.01473434508932</v>
       </c>
       <c r="E141">
-        <v>25.94806891744382</v>
+        <v>25.82089454560533</v>
       </c>
       <c r="F141">
-        <v>25.97661023549547</v>
+        <v>25.14858764119569</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>25.84938739549505</v>
+        <v>25.81128691911055</v>
       </c>
       <c r="C142">
-        <v>25.80250173958047</v>
+        <v>25.8460340001903</v>
       </c>
       <c r="D142">
-        <v>25.81265298569013</v>
+        <v>25.88378962291576</v>
       </c>
       <c r="E142">
-        <v>25.81719138517634</v>
+        <v>25.69014964145081</v>
       </c>
       <c r="F142">
-        <v>25.84570386216723</v>
+        <v>25.02184696000761</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>25.71907515333793</v>
+        <v>25.6805457539205</v>
       </c>
       <c r="C143">
-        <v>25.6717730340416</v>
+        <v>25.71611121293636</v>
       </c>
       <c r="D143">
-        <v>25.68191071156124</v>
+        <v>25.75297573884416</v>
       </c>
       <c r="E143">
-        <v>25.68644455845467</v>
+        <v>25.55953468600609</v>
       </c>
       <c r="F143">
-        <v>25.71492825652286</v>
+        <v>24.8951959472666</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>25.58888868087369</v>
+        <v>25.54993520431612</v>
       </c>
       <c r="C144">
-        <v>25.54117449693731</v>
+        <v>25.58626685872242</v>
       </c>
       <c r="D144">
-        <v>25.55129902869404</v>
+        <v>25.62229257069075</v>
       </c>
       <c r="E144">
-        <v>25.55582832273344</v>
+        <v>25.42904964145579</v>
       </c>
       <c r="F144">
-        <v>25.58428330414747</v>
+        <v>24.76863755767569</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>25.45882846952484</v>
+        <v>25.41945515038413</v>
       </c>
       <c r="C145">
-        <v>25.41070606056353</v>
+        <v>25.45650438555514</v>
       </c>
       <c r="D145">
-        <v>25.42081781990626</v>
+        <v>25.49173999517672</v>
       </c>
       <c r="E145">
-        <v>25.42534256173312</v>
+        <v>25.29869445684655</v>
       </c>
       <c r="F145">
-        <v>25.45376888284037</v>
+        <v>24.64217449272212</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>25.32889496315078</v>
+        <v>25.28910547124581</v>
       </c>
       <c r="C146">
-        <v>25.28036765182703</v>
+        <v>25.326826979499</v>
       </c>
       <c r="D146">
-        <v>25.29046696637538</v>
+        <v>25.36131788784078</v>
       </c>
       <c r="E146">
-        <v>25.29498715788088</v>
+        <v>25.16846907205943</v>
       </c>
       <c r="F146">
-        <v>25.3233848730203</v>
+        <v>24.51580923412854</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>25.19908853750137</v>
+        <v>25.15888604458218</v>
       </c>
       <c r="C147">
-        <v>25.15015918941163</v>
+        <v>25.19723756571584</v>
       </c>
       <c r="D147">
-        <v>25.16024634815888</v>
+        <v>25.2310261237683</v>
       </c>
       <c r="E147">
-        <v>25.16476199150825</v>
+        <v>25.03837341757771</v>
       </c>
       <c r="F147">
-        <v>25.19313115220719</v>
+        <v>24.38954412024588</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>25.06940953215996</v>
+        <v>25.02879674721127</v>
       </c>
       <c r="C148">
-        <v>25.02008058610265</v>
+        <v>25.06773884277162</v>
       </c>
       <c r="D148">
-        <v>25.03015584384708</v>
+        <v>25.10086457723455</v>
       </c>
       <c r="E148">
-        <v>25.03466694178316</v>
+        <v>24.90840741914607</v>
       </c>
       <c r="F148">
-        <v>25.06300759656944</v>
+        <v>24.26338121451584</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>24.93985823592602</v>
+        <v>24.89883745511409</v>
       </c>
       <c r="C149">
-        <v>24.89013174868577</v>
+        <v>24.93833329864082</v>
       </c>
       <c r="D149">
-        <v>24.9001953314722</v>
+        <v>24.97083312260143</v>
       </c>
       <c r="E149">
-        <v>24.90470188782644</v>
+        <v>24.7785709924621</v>
       </c>
       <c r="F149">
-        <v>24.93301408204175</v>
+        <v>24.13732251685086</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>24.81043489832851</v>
+        <v>24.76900804359909</v>
       </c>
       <c r="C150">
-        <v>24.76031258200693</v>
+        <v>24.80902322190721</v>
       </c>
       <c r="D150">
-        <v>24.77036468777009</v>
+        <v>24.84093163303305</v>
       </c>
       <c r="E150">
-        <v>24.77486670639395</v>
+        <v>24.64886405163749</v>
       </c>
       <c r="F150">
-        <v>24.80315048366001</v>
+        <v>24.01136981499715</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>24.68113973956253</v>
+        <v>24.63930838746517</v>
       </c>
       <c r="C151">
-        <v>24.63062298348548</v>
+        <v>24.67981073224778</v>
       </c>
       <c r="D151">
-        <v>24.64066378905142</v>
+        <v>24.71115998225644</v>
       </c>
       <c r="E151">
-        <v>24.64516127487795</v>
+        <v>24.51928650180597</v>
       </c>
       <c r="F151">
-        <v>24.6734166761573</v>
+        <v>23.88552475702112</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>24.55197293783874</v>
+        <v>24.50973836105665</v>
       </c>
       <c r="C152">
-        <v>24.50106285082861</v>
+        <v>24.55069777520926</v>
       </c>
       <c r="D152">
-        <v>24.51109251078745</v>
+        <v>24.58151804317696</v>
       </c>
       <c r="E152">
-        <v>24.51558546906451</v>
+        <v>24.38983824653318</v>
       </c>
       <c r="F152">
-        <v>24.54381253349778</v>
+        <v>23.75978889450028</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>24.42293465286287</v>
+        <v>24.38029783829455</v>
       </c>
       <c r="C153">
-        <v>24.37163207591843</v>
+        <v>24.42168615512613</v>
       </c>
       <c r="D153">
-        <v>24.38165072803336</v>
+        <v>24.45200568854515</v>
       </c>
       <c r="E153">
-        <v>24.38613916421239</v>
+        <v>24.26051918364558</v>
       </c>
       <c r="F153">
-        <v>24.41433792986536</v>
+        <v>23.63416361519259</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>24.29402501064393</v>
+        <v>24.25098669283078</v>
       </c>
       <c r="C154">
-        <v>24.24233054906254</v>
+        <v>24.29277752988977</v>
       </c>
       <c r="D154">
-        <v>24.25233831539941</v>
+        <v>24.32262279109559</v>
       </c>
       <c r="E154">
-        <v>24.25682223521751</v>
+        <v>24.13132920856991</v>
       </c>
       <c r="F154">
-        <v>24.28499273887783</v>
+        <v>23.50865023469862</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>24.16524412039491</v>
+        <v>24.1218047983316</v>
       </c>
       <c r="C155">
-        <v>24.11315815796047</v>
+        <v>24.16397343593647</v>
       </c>
       <c r="D155">
-        <v>24.12315514716841</v>
+        <v>24.19336922317778</v>
       </c>
       <c r="E155">
-        <v>24.12763455630799</v>
+        <v>24.00226821356778</v>
       </c>
       <c r="F155">
-        <v>24.15577683377338</v>
+        <v>23.38324994822629</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>24.03659206725808</v>
+        <v>23.99275202763283</v>
       </c>
       <c r="C156">
-        <v>23.98411478799529</v>
+        <v>24.03527528823099</v>
       </c>
       <c r="D156">
-        <v>23.99410109736646</v>
+        <v>24.06424485719311</v>
       </c>
       <c r="E156">
-        <v>23.99857600144925</v>
+        <v>23.87333608880184</v>
       </c>
       <c r="F156">
-        <v>24.02669008806425</v>
+        <v>23.25796386621175</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>23.90806892236042</v>
+        <v>23.86382825422888</v>
       </c>
       <c r="C157">
-        <v>23.85520032310759</v>
+        <v>23.90668439620916</v>
       </c>
       <c r="D157">
-        <v>23.8651760397803</v>
+        <v>23.93524956545005</v>
       </c>
       <c r="E157">
-        <v>23.86964644446861</v>
+        <v>23.74453272200126</v>
       </c>
       <c r="F157">
-        <v>23.89773237448523</v>
+        <v>23.13279301937753</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>23.77967473678684</v>
+        <v>23.73503335118013</v>
       </c>
       <c r="C158">
-        <v>23.72641464578135</v>
+        <v>23.77820196888081</v>
       </c>
       <c r="D158">
-        <v>23.7363798480507</v>
+        <v>23.80638322022425</v>
       </c>
       <c r="E158">
-        <v>23.74084575890392</v>
+        <v>23.61585799983067</v>
       </c>
       <c r="F158">
-        <v>23.76890356610546</v>
+        <v>23.00773834786629</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>23.65140955198412</v>
+        <v>23.60636719112274</v>
       </c>
       <c r="C159">
-        <v>23.59775763729779</v>
+        <v>23.64982911705943</v>
       </c>
       <c r="D159">
-        <v>23.60771239561937</v>
+        <v>23.67764569378339</v>
       </c>
       <c r="E159">
-        <v>23.61217381820151</v>
+        <v>23.48731180652285</v>
       </c>
       <c r="F159">
-        <v>23.6402035356695</v>
+        <v>22.88280074102112</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>23.52327339292821</v>
+        <v>23.47782964731437</v>
       </c>
       <c r="C160">
-        <v>23.46922917791905</v>
+        <v>23.52156687465507</v>
       </c>
       <c r="D160">
-        <v>23.4791735558669</v>
+        <v>23.54903685846761</v>
       </c>
       <c r="E160">
-        <v>23.48363049583806</v>
+        <v>23.35889402585757</v>
       </c>
       <c r="F160">
-        <v>23.51163215589997</v>
+        <v>22.75798100106891</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>23.39526627497988</v>
+        <v>23.34942059236995</v>
       </c>
       <c r="C161">
-        <v>23.34082914728533</v>
+        <v>23.39341620102711</v>
       </c>
       <c r="D161">
-        <v>23.35076320202008</v>
+        <v>23.42055658661365</v>
       </c>
       <c r="E161">
-        <v>23.35521566495624</v>
+        <v>23.23060453957563</v>
       </c>
       <c r="F161">
-        <v>23.38318929949964</v>
+        <v>22.63327988422594</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>23.26738820269464</v>
+        <v>23.22113989917031</v>
       </c>
       <c r="C162">
-        <v>23.21255742381521</v>
+        <v>23.26537795905748</v>
       </c>
       <c r="D162">
-        <v>23.22248120732399</v>
+        <v>23.29220475059489</v>
       </c>
       <c r="E162">
-        <v>23.2269291989322</v>
+        <v>23.10244322894204</v>
       </c>
       <c r="F162">
-        <v>23.25487483919633</v>
+        <v>22.5086980888015</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>23.13963917016351</v>
+        <v>23.09298744061053</v>
       </c>
       <c r="C163">
-        <v>23.08441388582853</v>
+        <v>23.13745297996213</v>
       </c>
       <c r="D163">
-        <v>23.09432744496885</v>
+        <v>23.16398122289992</v>
       </c>
       <c r="E163">
-        <v>23.09877097083097</v>
+        <v>22.9744099739213</v>
       </c>
       <c r="F163">
-        <v>23.12668864772292</v>
+        <v>22.38423624977012</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>23.01201916447611</v>
+        <v>22.96496308944973</v>
       </c>
       <c r="C164">
-        <v>22.956398410479</v>
+        <v>23.00964201695275</v>
       </c>
       <c r="D164">
-        <v>22.96630178807232</v>
+        <v>23.0358858759777</v>
       </c>
       <c r="E164">
-        <v>22.97074085384995</v>
+        <v>22.84650465387311</v>
       </c>
       <c r="F164">
-        <v>22.99863059783002</v>
+        <v>22.25989496943806</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>22.88452816356277</v>
+        <v>22.83706671859535</v>
       </c>
       <c r="C165">
-        <v>22.8285108748442</v>
+        <v>22.88194574896207</v>
       </c>
       <c r="D165">
-        <v>22.83840410992118</v>
+        <v>22.90791858243485</v>
       </c>
       <c r="E165">
-        <v>22.84283872111387</v>
+        <v>22.71872714739741</v>
       </c>
       <c r="F165">
-        <v>22.87070056240382</v>
+        <v>22.13567479078404</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>22.75716613985263</v>
+        <v>22.70929820097232</v>
       </c>
       <c r="C166">
-        <v>22.70075115529544</v>
+        <v>22.75436483755012</v>
       </c>
       <c r="D166">
-        <v>22.71063428368877</v>
+        <v>22.78007921489288</v>
       </c>
       <c r="E166">
-        <v>22.71506444575451</v>
+        <v>22.59107733260328</v>
       </c>
       <c r="F166">
-        <v>22.74289841427815</v>
+        <v>22.01157622624672</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>22.62993305857751</v>
+        <v>22.58165740957693</v>
       </c>
       <c r="C167">
-        <v>22.5731191279731</v>
+        <v>22.62689986373244</v>
       </c>
       <c r="D167">
-        <v>22.58299218259162</v>
+        <v>22.65236764608121</v>
       </c>
       <c r="E167">
-        <v>22.58741790095392</v>
+        <v>22.46355508704488</v>
       </c>
       <c r="F167">
-        <v>22.61522402642948</v>
+        <v>21.88759974642448</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>22.50282888061714</v>
+        <v>22.45414421749498</v>
       </c>
       <c r="C168">
-        <v>22.4456146686865</v>
+        <v>22.49955137113603</v>
       </c>
       <c r="D168">
-        <v>22.45547768004315</v>
+        <v>22.52478374881617</v>
       </c>
       <c r="E168">
-        <v>22.4598989599472</v>
+        <v>22.33616028797281</v>
       </c>
       <c r="F168">
-        <v>22.48767727189235</v>
+        <v>21.76374578468867</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>22.37585356078843</v>
+        <v>22.32675849784391</v>
       </c>
       <c r="C169">
-        <v>22.31823765304891</v>
+        <v>22.37231987135566</v>
       </c>
       <c r="D169">
-        <v>22.32809064929297</v>
+        <v>22.3973273960103</v>
       </c>
       <c r="E169">
-        <v>22.33250749602031</v>
+        <v>22.20889281219862</v>
       </c>
       <c r="F169">
-        <v>22.360258023726</v>
+        <v>21.64001474764322</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>22.24900705080922</v>
+        <v>22.19950012390234</v>
       </c>
       <c r="C170">
-        <v>22.19098795643906</v>
+        <v>22.24520581496167</v>
       </c>
       <c r="D170">
-        <v>22.20083096379745</v>
+        <v>22.26999846067781</v>
       </c>
       <c r="E170">
-        <v>22.20524338254158</v>
+        <v>22.08175253630281</v>
       </c>
       <c r="F170">
-        <v>22.23296615512529</v>
+        <v>21.51640700477199</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>22.12228929719344</v>
+        <v>22.07236896901632</v>
       </c>
       <c r="C171">
-        <v>22.06386545417446</v>
+        <v>22.11820963220386</v>
       </c>
       <c r="D171">
-        <v>22.07369849708477</v>
+        <v>22.14279681594251</v>
       </c>
       <c r="E171">
-        <v>22.07810649296615</v>
+        <v>21.95473933657748</v>
       </c>
       <c r="F171">
-        <v>22.1058015393431</v>
+        <v>21.39292290504769</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>21.99570024392343</v>
+        <v>21.94536490657271</v>
       </c>
       <c r="C172">
-        <v>21.93687002138364</v>
+        <v>21.99133171396049</v>
       </c>
       <c r="D172">
-        <v>21.94669312265653</v>
+        <v>22.01572233504425</v>
       </c>
       <c r="E172">
-        <v>21.95109670079928</v>
+        <v>21.82785308910309</v>
       </c>
       <c r="F172">
-        <v>21.97876404973217</v>
+        <v>21.26956276809995</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>21.86923983118933</v>
+        <v>21.81848781014417</v>
       </c>
       <c r="C173">
-        <v>21.81000153314801</v>
+        <v>21.86457241446288</v>
       </c>
       <c r="D173">
-        <v>21.81981471418964</v>
+        <v>21.88877489131721</v>
       </c>
       <c r="E173">
-        <v>21.82421387967354</v>
+        <v>21.70109366979796</v>
       </c>
       <c r="F173">
-        <v>21.85185355975109</v>
+        <v>21.14632688907744</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>21.74290799646025</v>
+        <v>21.69173755333824</v>
       </c>
       <c r="C174">
-        <v>21.68325986447493</v>
+        <v>21.73793206595295</v>
       </c>
       <c r="D174">
-        <v>21.69306314542073</v>
+        <v>21.76195435823342</v>
       </c>
       <c r="E174">
-        <v>21.69745790326938</v>
+        <v>21.57446095442353</v>
       </c>
       <c r="F174">
-        <v>21.72506994296278</v>
+        <v>21.02321554515119</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>21.61670467476402</v>
+        <v>21.56511400988331</v>
       </c>
       <c r="C175">
-        <v>21.5566448902964</v>
+        <v>21.61141096847052</v>
       </c>
       <c r="D175">
-        <v>21.56643829016741</v>
+        <v>21.63526060935533</v>
       </c>
       <c r="E175">
-        <v>21.57082864538893</v>
+        <v>21.44795481864763</v>
       </c>
       <c r="F175">
-        <v>21.5984130730377</v>
+        <v>20.9002289873279</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>21.49062979861071</v>
+        <v>21.43861705362593</v>
       </c>
       <c r="C176">
-        <v>21.43015648555259</v>
+        <v>21.48500939613222</v>
       </c>
       <c r="D176">
-        <v>21.4399400223676</v>
+        <v>21.50869351837933</v>
       </c>
       <c r="E176">
-        <v>21.44432597992015</v>
+        <v>21.32157513805366</v>
       </c>
       <c r="F176">
-        <v>21.47188282375794</v>
+        <v>20.77736745315001</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>21.36468329878111</v>
+        <v>21.31224655850686</v>
       </c>
       <c r="C177">
-        <v>21.30379452514281</v>
+        <v>21.3587276052483</v>
       </c>
       <c r="D177">
-        <v>21.31356821605107</v>
+        <v>21.38225295911278</v>
       </c>
       <c r="E177">
-        <v>21.31794978085491</v>
+        <v>21.19532178815109</v>
       </c>
       <c r="F177">
-        <v>21.34547906903153</v>
+        <v>20.65463115958212</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>21.23886510398679</v>
+        <v>21.18600239858499</v>
       </c>
       <c r="C178">
-        <v>21.17755888399055</v>
+        <v>21.2325658203441</v>
       </c>
       <c r="D178">
-        <v>21.18732274535483</v>
+        <v>21.25593880548169</v>
       </c>
       <c r="E178">
-        <v>21.191699922297</v>
+        <v>21.06919464441182</v>
       </c>
       <c r="F178">
-        <v>21.21920168285862</v>
+        <v>20.53202030783461</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>21.11317514168816</v>
+        <v>21.05988444803464</v>
       </c>
       <c r="C179">
-        <v>21.05144943702783</v>
+        <v>21.10652425230629</v>
       </c>
       <c r="D179">
-        <v>21.06120348454223</v>
+        <v>21.12975093153543</v>
       </c>
       <c r="E179">
-        <v>21.06557627845841</v>
+        <v>20.9431935823705</v>
       </c>
       <c r="F179">
-        <v>21.09305053938036</v>
+        <v>20.40953508562446</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>20.98761333763417</v>
+        <v>20.93389258115087</v>
       </c>
       <c r="C180">
-        <v>20.92546605925256</v>
+        <v>20.98060309264546</v>
       </c>
       <c r="D180">
-        <v>20.93521030795984</v>
+        <v>21.00368921144612</v>
       </c>
       <c r="E180">
-        <v>20.93957872366351</v>
+        <v>20.81731847747195</v>
       </c>
       <c r="F180">
-        <v>20.96702551284055</v>
+        <v>20.28717566435924</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>20.86217961673985</v>
+        <v>20.80802667234707</v>
       </c>
       <c r="C181">
-        <v>20.79960862570584</v>
+        <v>20.85480250731313</v>
       </c>
       <c r="D181">
-        <v>20.80934309008786</v>
+        <v>20.87775351950924</v>
       </c>
       <c r="E181">
-        <v>20.81370713235669</v>
+        <v>20.69156920513282</v>
       </c>
       <c r="F181">
-        <v>20.84112647760458</v>
+        <v>20.16494220546063</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>20.73687390250469</v>
+        <v>20.68228659615232</v>
       </c>
       <c r="C182">
-        <v>20.67387701140592</v>
+        <v>20.72912265288948</v>
       </c>
       <c r="D182">
-        <v>20.68360170552866</v>
+        <v>20.75194373014491</v>
       </c>
       <c r="E182">
-        <v>20.68796137908889</v>
+        <v>20.5659456410062</v>
       </c>
       <c r="F182">
-        <v>20.71535330816118</v>
+        <v>20.04283485643781</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>20.61169611786987</v>
+        <v>20.55667222722748</v>
       </c>
       <c r="C183">
-        <v>20.5482710915695</v>
+        <v>20.60356366689289</v>
       </c>
       <c r="D183">
-        <v>20.55798602896869</v>
+        <v>20.62625971790104</v>
       </c>
       <c r="E183">
-        <v>20.56234133853251</v>
+        <v>20.44044766064905</v>
       </c>
       <c r="F183">
-        <v>20.58970587911766</v>
+        <v>19.92085375496916</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>20.48664618475107</v>
+        <v>20.4311834403546</v>
       </c>
       <c r="C184">
-        <v>20.42279074148093</v>
+        <v>20.47812566983697</v>
       </c>
       <c r="D184">
-        <v>20.43249593524271</v>
+        <v>20.50070135744851</v>
       </c>
       <c r="E184">
-        <v>20.43684688549494</v>
+        <v>20.31507513951982</v>
       </c>
       <c r="F184">
-        <v>20.46418406520503</v>
+        <v>19.79899902905695</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>20.3617240245793</v>
+        <v>20.30582011042788</v>
       </c>
       <c r="C185">
-        <v>20.29743583629919</v>
+        <v>20.35280877186305</v>
       </c>
       <c r="D185">
-        <v>20.30713129929496</v>
+        <v>20.37526852358744</v>
       </c>
       <c r="E185">
-        <v>20.31147789488894</v>
+        <v>20.18982795342339</v>
       </c>
       <c r="F185">
-        <v>20.33878774128006</v>
+        <v>19.67727079585187</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>20.23692955807873</v>
+        <v>20.18058211248128</v>
       </c>
       <c r="C186">
-        <v>20.17220625150823</v>
+        <v>20.22761306735323</v>
       </c>
       <c r="D186">
-        <v>20.18189199618068</v>
+        <v>20.2499610912442</v>
       </c>
       <c r="E186">
-        <v>20.18623424173432</v>
+        <v>20.06470597810275</v>
       </c>
       <c r="F186">
-        <v>20.21351678232381</v>
+        <v>19.55566916607513</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>20.1122627056124</v>
+        <v>20.05546932166347</v>
       </c>
       <c r="C187">
-        <v>20.04710186263782</v>
+        <v>20.10253863926017</v>
       </c>
       <c r="D187">
-        <v>20.05677790108684</v>
+        <v>20.12477893547116</v>
       </c>
       <c r="E187">
-        <v>20.06111580121557</v>
+        <v>19.93970908921421</v>
       </c>
       <c r="F187">
-        <v>20.08837106344288</v>
+        <v>19.43419424061113</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>19.98772338747057</v>
+        <v>19.93048161324886</v>
       </c>
       <c r="C188">
-        <v>19.92212254517789</v>
+        <v>19.97758556039656</v>
       </c>
       <c r="D188">
-        <v>19.93178888931896</v>
+        <v>19.99972193145031</v>
       </c>
       <c r="E188">
-        <v>19.93612244862634</v>
+        <v>19.81483716270586</v>
       </c>
       <c r="F188">
-        <v>19.96335045987143</v>
+        <v>19.31284611441558</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>19.86331152347057</v>
+        <v>19.80561886264109</v>
       </c>
       <c r="C189">
-        <v>19.79726817481</v>
+        <v>19.852753889786</v>
       </c>
       <c r="D189">
-        <v>19.80692483630565</v>
+        <v>19.87478995449023</v>
       </c>
       <c r="E189">
-        <v>19.81125405934395</v>
+        <v>19.69009007453066</v>
       </c>
       <c r="F189">
-        <v>19.83845484697121</v>
+        <v>19.19162487506683</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>19.7390270329763</v>
+        <v>19.68088094536757</v>
       </c>
       <c r="C190">
-        <v>19.67253862733994</v>
+        <v>19.7280436795235</v>
       </c>
       <c r="D190">
-        <v>19.68218561760153</v>
+        <v>19.74998288002876</v>
       </c>
       <c r="E190">
-        <v>19.6865105089263</v>
+        <v>19.56546770065756</v>
       </c>
       <c r="F190">
-        <v>19.71368410022835</v>
+        <v>19.07053060300297</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>19.61486983614061</v>
+        <v>19.55626773708337</v>
       </c>
       <c r="C191">
-        <v>19.54793377862174</v>
+        <v>19.60345497141296</v>
       </c>
       <c r="D191">
-        <v>19.55757110888446</v>
+        <v>19.62530058363253</v>
       </c>
       <c r="E191">
-        <v>19.56189167304365</v>
+        <v>19.44096991722694</v>
       </c>
       <c r="F191">
-        <v>19.58903809526059</v>
+        <v>18.9495633755303</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>19.49083985292056</v>
+        <v>19.43177911357124</v>
       </c>
       <c r="C192">
-        <v>19.42345350460962</v>
+        <v>19.47898779648459</v>
       </c>
       <c r="D192">
-        <v>19.43308118595978</v>
+        <v>19.50074294099719</v>
       </c>
       <c r="E192">
-        <v>19.4373974274601</v>
+        <v>19.31659660044911</v>
       </c>
       <c r="F192">
-        <v>19.46451670780987</v>
+        <v>18.82872326526454</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>19.36693700222634</v>
+        <v>19.30741495074279</v>
       </c>
       <c r="C193">
-        <v>19.29909768140632</v>
+        <v>19.35464218021079</v>
       </c>
       <c r="D193">
-        <v>19.30871572476087</v>
+        <v>19.37630982794805</v>
       </c>
       <c r="E193">
-        <v>19.31302764810052</v>
+        <v>19.19234762662044</v>
       </c>
       <c r="F193">
-        <v>19.34011981374886</v>
+        <v>18.70801033521291</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>19.2431612045925</v>
+        <v>19.18317512463782</v>
       </c>
       <c r="C194">
-        <v>19.17486618520649</v>
+        <v>19.23041813865018</v>
       </c>
       <c r="D194">
-        <v>19.18447460134201</v>
+        <v>19.25200112043955</v>
       </c>
       <c r="E194">
-        <v>19.18878221100714</v>
+        <v>19.06822287216007</v>
       </c>
       <c r="F194">
-        <v>19.21584728907804</v>
+        <v>18.58742464829796</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>19.11951238046625</v>
+        <v>19.05905951142432</v>
       </c>
       <c r="C195">
-        <v>19.0507588923102</v>
+        <v>19.10631568015851</v>
       </c>
       <c r="D195">
-        <v>19.06035769189124</v>
+        <v>19.12781669455621</v>
       </c>
       <c r="E195">
-        <v>19.06466099234552</v>
+        <v>18.94422221359342</v>
       </c>
       <c r="F195">
-        <v>19.09169900992678</v>
+        <v>18.46696626578952</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>18.99599044958562</v>
+        <v>18.93506798740076</v>
       </c>
       <c r="C196">
-        <v>18.92677567914924</v>
+        <v>18.98233480768081</v>
       </c>
       <c r="D196">
-        <v>18.93636487272259</v>
+        <v>19.00375642651358</v>
       </c>
       <c r="E196">
-        <v>18.94066386841164</v>
+        <v>18.8203455275267</v>
       </c>
       <c r="F196">
-        <v>18.96767485255399</v>
+        <v>18.3466352451051</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>18.8725953328909</v>
+        <v>18.81120042899522</v>
       </c>
       <c r="C197">
-        <v>18.80291642226939</v>
+        <v>18.85847551591454</v>
       </c>
       <c r="D197">
-        <v>18.81249602027413</v>
+        <v>18.87982019265725</v>
       </c>
       <c r="E197">
-        <v>18.81679071563079</v>
+        <v>18.69659269071552</v>
       </c>
       <c r="F197">
-        <v>18.84377469334839</v>
+        <v>18.22643163088326</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>18.74932695161185</v>
+        <v>18.68745671276304</v>
       </c>
       <c r="C198">
-        <v>18.67918099832374</v>
+        <v>18.73473779452364</v>
       </c>
       <c r="D198">
-        <v>18.68875101111704</v>
+        <v>18.75600786946049</v>
       </c>
       <c r="E198">
-        <v>18.69304141055733</v>
+        <v>18.5729635800274</v>
       </c>
       <c r="F198">
-        <v>18.71999840882842</v>
+        <v>18.10635547751792</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>18.62618522709829</v>
+        <v>18.56383671539225</v>
       </c>
       <c r="C199">
-        <v>18.55556928410581</v>
+        <v>18.61112162750567</v>
       </c>
       <c r="D199">
-        <v>18.56512972194922</v>
+        <v>18.63231933353093</v>
       </c>
       <c r="E199">
-        <v>18.56941582987567</v>
+        <v>18.44945807239761</v>
       </c>
       <c r="F199">
-        <v>18.5963458756429</v>
+        <v>17.98640683391126</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>18.50317008116031</v>
+        <v>18.44034031369941</v>
       </c>
       <c r="C200">
-        <v>18.43208115653093</v>
+        <v>18.48762699236029</v>
       </c>
       <c r="D200">
-        <v>18.4416320295967</v>
+        <v>18.50875446160621</v>
       </c>
       <c r="E200">
-        <v>18.44591385039977</v>
+        <v>18.32607604492678</v>
       </c>
       <c r="F200">
-        <v>18.47281697057016</v>
+        <v>17.86658574467946</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>18.38028143633786</v>
+        <v>18.31696738463104</v>
       </c>
       <c r="C201">
-        <v>18.30871649260794</v>
+        <v>18.36425386273693</v>
       </c>
       <c r="D201">
-        <v>18.31825781101621</v>
+        <v>18.38531313055266</v>
       </c>
       <c r="E201">
-        <v>18.32253534907378</v>
+        <v>18.20281737482748</v>
       </c>
       <c r="F201">
-        <v>18.34941157051984</v>
+        <v>17.74689224921728</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>18.25751921561293</v>
+        <v>18.19371780526486</v>
       </c>
       <c r="C202">
-        <v>18.18547516950254</v>
+        <v>18.24100220700885</v>
       </c>
       <c r="D202">
-        <v>18.19500694329353</v>
+        <v>18.26199521736886</v>
       </c>
       <c r="E202">
-        <v>18.19928020297052</v>
+        <v>18.07968193940157</v>
       </c>
       <c r="F202">
-        <v>18.22612955253282</v>
+        <v>17.62732639215721</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>18.13488334249629</v>
+        <v>18.07059145280892</v>
       </c>
       <c r="C203">
-        <v>18.06235706449988</v>
+        <v>18.11787198859265</v>
       </c>
       <c r="D203">
-        <v>18.07187930364448</v>
+        <v>18.13880059918539</v>
       </c>
       <c r="E203">
-        <v>18.07614828929693</v>
+        <v>17.95666961609172</v>
       </c>
       <c r="F203">
-        <v>18.10297079378071</v>
+        <v>17.50788821474661</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>18.012373741266</v>
+        <v>17.94758820460211</v>
       </c>
       <c r="C204">
-        <v>17.93936205499348</v>
+        <v>17.99486316758733</v>
       </c>
       <c r="D204">
-        <v>17.94887476941527</v>
+        <v>18.01572915326347</v>
       </c>
       <c r="E204">
-        <v>17.95313948539019</v>
+        <v>17.83378028246349</v>
       </c>
       <c r="F204">
-        <v>17.9799351715638</v>
+        <v>17.38857775458539</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>17.88999033686124</v>
+        <v>17.82470793811447</v>
       </c>
       <c r="C205">
-        <v>17.8164900185116</v>
+        <v>17.8719756993121</v>
       </c>
       <c r="D205">
-        <v>17.82599321808229</v>
+        <v>17.89278075699492</v>
       </c>
       <c r="E205">
-        <v>17.83025366871301</v>
+        <v>17.71101381619493</v>
       </c>
       <c r="F205">
-        <v>17.857022563317</v>
+        <v>17.26939504987969</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>17.76773305481755</v>
+        <v>17.70195053094765</v>
       </c>
       <c r="C206">
-        <v>17.69374083271518</v>
+        <v>17.74920953553786</v>
       </c>
       <c r="D206">
-        <v>17.7032345272532</v>
+        <v>17.76995528790431</v>
       </c>
       <c r="E206">
-        <v>17.7074907168655</v>
+        <v>17.58837009508995</v>
       </c>
       <c r="F206">
-        <v>17.7342328466059</v>
+        <v>17.1503401392783</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>17.64560182160206</v>
+        <v>17.5793158608346</v>
       </c>
       <c r="C207">
-        <v>17.57111437538528</v>
+        <v>17.62656462492089</v>
       </c>
       <c r="D207">
-        <v>17.58059857466663</v>
+        <v>17.64725262364751</v>
       </c>
       <c r="E207">
-        <v>17.58485050757752</v>
+        <v>17.46584899707906</v>
       </c>
       <c r="F207">
-        <v>17.61156589912651</v>
+        <v>17.03141306055592</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>17.52359656446309</v>
+        <v>17.45680380564004</v>
       </c>
       <c r="C208">
-        <v>17.44861052442863</v>
+        <v>17.50404091183819</v>
       </c>
       <c r="D208">
-        <v>17.45808523819171</v>
+        <v>17.52467264201264</v>
       </c>
       <c r="E208">
-        <v>17.46233291870796</v>
+        <v>17.34345040021666</v>
       </c>
       <c r="F208">
-        <v>17.48902159870662</v>
+        <v>16.91261384990065</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>17.40171721134599</v>
+        <v>17.33441424336075</v>
       </c>
       <c r="C209">
-        <v>17.32622915788561</v>
+        <v>17.38163833835732</v>
       </c>
       <c r="D209">
-        <v>17.33569439582999</v>
+        <v>17.4022152209196</v>
       </c>
       <c r="E209">
-        <v>17.33993782824917</v>
+        <v>17.2211741826838</v>
       </c>
       <c r="F209">
-        <v>17.36659982330727</v>
+        <v>16.79394254536621</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>17.27996369117443</v>
+        <v>17.21214705212562</v>
       </c>
       <c r="C210">
-        <v>17.20397015392338</v>
+        <v>17.25935684332807</v>
       </c>
       <c r="D210">
-        <v>17.21342592571431</v>
+        <v>17.27988023842061</v>
       </c>
       <c r="E210">
-        <v>17.21766511432518</v>
+        <v>17.09902022278953</v>
       </c>
       <c r="F210">
-        <v>17.24430045102113</v>
+        <v>16.67539918486888</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>17.15833593381674</v>
+        <v>17.09000211019538</v>
       </c>
       <c r="C211">
-        <v>17.08183339083849</v>
+        <v>17.13719636236855</v>
       </c>
       <c r="D211">
-        <v>17.09127970610906</v>
+        <v>17.15766757270049</v>
       </c>
       <c r="E211">
-        <v>17.09551465519219</v>
+        <v>16.97698839896926</v>
       </c>
       <c r="F211">
-        <v>17.12212336007264</v>
+        <v>16.55698380649137</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>17.03683387001685</v>
+        <v>16.96797929596392</v>
       </c>
       <c r="C212">
-        <v>16.95981874705804</v>
+        <v>17.01515682902777</v>
       </c>
       <c r="D212">
-        <v>16.96925561541128</v>
+        <v>17.035577102077</v>
       </c>
       <c r="E212">
-        <v>16.97348632923869</v>
+        <v>16.85507858978655</v>
       </c>
       <c r="F212">
-        <v>17.00006842881934</v>
+        <v>16.43869644826614</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>16.91545743147034</v>
+        <v>16.84607848795779</v>
       </c>
       <c r="C213">
-        <v>16.83792610113975</v>
+        <v>16.89323817403224</v>
       </c>
       <c r="D213">
-        <v>16.84735353215017</v>
+        <v>16.91360870500022</v>
       </c>
       <c r="E213">
-        <v>16.85158001498523</v>
+        <v>16.73329067393783</v>
       </c>
       <c r="F213">
-        <v>16.87813553575122</v>
+        <v>16.32053715044506</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>16.79420655097003</v>
+        <v>16.72429956483641</v>
       </c>
       <c r="C214">
-        <v>16.71615533177138</v>
+        <v>16.77144032567154</v>
       </c>
       <c r="D214">
-        <v>16.72557333498751</v>
+        <v>16.79176226005337</v>
       </c>
       <c r="E214">
-        <v>16.72979559108573</v>
+        <v>16.61162453024624</v>
       </c>
       <c r="F214">
-        <v>16.7563245594915</v>
+        <v>16.2025059539955</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>16.67308116233041</v>
+        <v>16.60264240539177</v>
       </c>
       <c r="C215">
-        <v>16.59450631777398</v>
+        <v>16.64976321034635</v>
       </c>
       <c r="D215">
-        <v>16.60391490271792</v>
+        <v>16.67003764595347</v>
       </c>
       <c r="E215">
-        <v>16.60813293632782</v>
+        <v>16.4900800376619</v>
       </c>
       <c r="F215">
-        <v>16.63463537879684</v>
+        <v>16.08460289991998</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>16.55208120044225</v>
+        <v>16.48110688855012</v>
       </c>
       <c r="C216">
-        <v>16.47297893810068</v>
+        <v>16.52820675193296</v>
       </c>
       <c r="D216">
-        <v>16.48237811426943</v>
+        <v>16.54843474155031</v>
       </c>
       <c r="E216">
-        <v>16.48659192963143</v>
+        <v>16.36865707527193</v>
       </c>
       <c r="F216">
-        <v>16.51306787255661</v>
+        <v>15.96682803100857</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>16.43120660133865</v>
+        <v>16.35969289337105</v>
       </c>
       <c r="C217">
-        <v>16.35157307183321</v>
+        <v>16.40677087259669</v>
       </c>
       <c r="D217">
-        <v>16.36096284870316</v>
+        <v>16.42695342582749</v>
       </c>
       <c r="E217">
-        <v>16.36517245005049</v>
+        <v>16.2473555222916</v>
       </c>
       <c r="F217">
-        <v>16.39162191979391</v>
+        <v>15.84918139222651</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>16.31045730220932</v>
+        <v>16.23840029904804</v>
       </c>
       <c r="C218">
-        <v>16.23028859818953</v>
+        <v>16.28545549267075</v>
       </c>
       <c r="D218">
-        <v>16.23966898521398</v>
+        <v>16.30559357790277</v>
       </c>
       <c r="E218">
-        <v>16.24387437677313</v>
+        <v>16.12617525806441</v>
       </c>
       <c r="F218">
-        <v>16.27029739966672</v>
+        <v>15.73166302992459</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>16.18983324149876</v>
+        <v>16.11722898490877</v>
       </c>
       <c r="C219">
-        <v>16.10912539652039</v>
+        <v>16.16426053036651</v>
       </c>
       <c r="D219">
-        <v>16.11849640313125</v>
+        <v>16.18435507702805</v>
       </c>
       <c r="E219">
-        <v>16.12269758912122</v>
+        <v>16.00511616207036</v>
       </c>
       <c r="F219">
-        <v>16.1490941914663</v>
+        <v>15.61427299071296</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>16.06933435884494</v>
+        <v>15.99617883041507</v>
       </c>
       <c r="C220">
-        <v>15.98808334630778</v>
+        <v>16.04318590260712</v>
       </c>
       <c r="D220">
-        <v>15.99744498191784</v>
+        <v>16.06323780258911</v>
       </c>
       <c r="E220">
-        <v>16.00164196655114</v>
+        <v>15.88417811392028</v>
       </c>
       <c r="F220">
-        <v>16.02801217461822</v>
+        <v>15.49701132478535</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>15.94896059518233</v>
+        <v>15.87524971516336</v>
       </c>
       <c r="C221">
-        <v>15.86716232716787</v>
+        <v>15.92223152447328</v>
       </c>
       <c r="D221">
-        <v>15.87651460117119</v>
+        <v>15.94224163410652</v>
       </c>
       <c r="E221">
-        <v>15.88070738865393</v>
+        <v>15.76336099335714</v>
       </c>
       <c r="F221">
-        <v>15.90705122868296</v>
+        <v>15.37987808387883</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>15.82871189280772</v>
+        <v>15.75444151888531</v>
       </c>
       <c r="C222">
-        <v>15.74636221885192</v>
+        <v>15.80139730932629</v>
       </c>
       <c r="D222">
-        <v>15.75570514062336</v>
+        <v>15.8213664512368</v>
       </c>
       <c r="E222">
-        <v>15.7598937351555</v>
+        <v>15.64266468025815</v>
       </c>
       <c r="F222">
-        <v>15.78621123335679</v>
+        <v>15.26287332181844</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>15.70858819537321</v>
+        <v>15.63375412144897</v>
       </c>
       <c r="C223">
-        <v>15.62568290124491</v>
+        <v>15.68068316966118</v>
       </c>
       <c r="D223">
-        <v>15.63501648014373</v>
+        <v>15.70061213377025</v>
       </c>
       <c r="E223">
-        <v>15.63920088591689</v>
+        <v>15.52208905463414</v>
       </c>
       <c r="F223">
-        <v>15.66549206846995</v>
+        <v>15.14599709444302</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>15.58858944792062</v>
+        <v>15.51318740285601</v>
       </c>
       <c r="C224">
-        <v>15.50512425436644</v>
+        <v>15.56008901664938</v>
       </c>
       <c r="D224">
-        <v>15.51444849973435</v>
+        <v>15.57997856163292</v>
       </c>
       <c r="E224">
-        <v>15.51862872093511</v>
+        <v>15.40163399663103</v>
       </c>
       <c r="F224">
-        <v>15.54489361398848</v>
+        <v>15.0292494605483</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>15.46871559697279</v>
+        <v>15.39274124324445</v>
       </c>
       <c r="C225">
-        <v>15.38468615837141</v>
+        <v>15.43961475994289</v>
       </c>
       <c r="D225">
-        <v>15.39400107953367</v>
+        <v>15.45946561488771</v>
       </c>
       <c r="E225">
-        <v>15.39817712034279</v>
+        <v>15.28129938652898</v>
       </c>
       <c r="F225">
-        <v>15.42441575001523</v>
+        <v>14.9126304813937</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>15.34896659057695</v>
+        <v>15.27241552288916</v>
       </c>
       <c r="C226">
-        <v>15.2643684935504</v>
+        <v>15.31926030701133</v>
       </c>
       <c r="D226">
-        <v>15.27367409981596</v>
+        <v>15.33907317373313</v>
       </c>
       <c r="E226">
-        <v>15.27784596440842</v>
+        <v>15.16108510474382</v>
       </c>
       <c r="F226">
-        <v>15.30405835678886</v>
+        <v>14.79614022100009</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>15.22934237827157</v>
+        <v>15.15221012220343</v>
       </c>
       <c r="C227">
-        <v>15.14417114033091</v>
+        <v>15.19902556605052</v>
       </c>
       <c r="D227">
-        <v>15.15346744099521</v>
+        <v>15.21880111850358</v>
       </c>
       <c r="E227">
-        <v>15.15763513353764</v>
+        <v>15.04099103182742</v>
       </c>
       <c r="F227">
-        <v>15.18382131468389</v>
+        <v>14.67977874632092</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>15.10984291120407</v>
+        <v>15.03212492173441</v>
       </c>
       <c r="C228">
-        <v>15.02409397927579</v>
+        <v>15.07891044378729</v>
       </c>
       <c r="D228">
-        <v>15.03338098361943</v>
+        <v>15.09864932967076</v>
       </c>
       <c r="E228">
-        <v>15.0375445082735</v>
+        <v>14.92101704846802</v>
       </c>
       <c r="F228">
-        <v>15.06370450421197</v>
+        <v>14.56354612740256</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14.99046814224154</v>
+        <v>14.91215980216747</v>
       </c>
       <c r="C229">
-        <v>14.90413689108512</v>
+        <v>14.95891484585343</v>
       </c>
       <c r="D229">
-        <v>14.91341460837344</v>
+        <v>14.97861768784498</v>
       </c>
       <c r="E229">
-        <v>14.91757396929526</v>
+        <v>14.80116303549088</v>
       </c>
       <c r="F229">
-        <v>14.94370780602421</v>
+        <v>14.44744243751367</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>14.87121802583731</v>
+        <v>14.79231464432668</v>
       </c>
       <c r="C230">
-        <v>14.78429975659766</v>
+        <v>14.83903867481112</v>
       </c>
       <c r="D230">
-        <v>14.79356819607992</v>
+        <v>14.85870607377222</v>
       </c>
       <c r="E230">
-        <v>14.7977233974205</v>
+        <v>14.68142887385832</v>
       </c>
       <c r="F230">
-        <v>14.8238311009068</v>
+        <v>14.33146775334788</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14.75209251819998</v>
+        <v>14.6725893291763</v>
       </c>
       <c r="C231">
-        <v>14.66458245678877</v>
+        <v>14.71928183535862</v>
       </c>
       <c r="D231">
-        <v>14.67384162770268</v>
+        <v>14.7389143683369</v>
       </c>
       <c r="E231">
-        <v>14.67799267360631</v>
+        <v>14.56181444467088</v>
       </c>
       <c r="F231">
-        <v>14.70407426978467</v>
+        <v>14.21562215508998</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.63309157745226</v>
+        <v>14.55298373781566</v>
       </c>
       <c r="C232">
-        <v>14.54498487277255</v>
+        <v>14.59964423047503</v>
       </c>
       <c r="D232">
-        <v>14.55423478434328</v>
+        <v>14.61924245256377</v>
       </c>
       <c r="E232">
-        <v>14.55838167894672</v>
+        <v>14.44231962916742</v>
       </c>
       <c r="F232">
-        <v>14.58443719372237</v>
+        <v>14.09990572662194</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14.51421516345289</v>
+        <v>14.43349775148422</v>
       </c>
       <c r="C233">
-        <v>14.4255068858028</v>
+        <v>14.48012576247552</v>
       </c>
       <c r="D233">
-        <v>14.4347475472397</v>
+        <v>14.499690207615</v>
       </c>
       <c r="E233">
-        <v>14.43889029467529</v>
+        <v>14.32294430872608</v>
       </c>
       <c r="F233">
-        <v>14.46491975392416</v>
+        <v>13.98431855568839</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14.39546323796114</v>
+        <v>14.31413125156239</v>
       </c>
       <c r="C234">
-        <v>14.30614837727213</v>
+        <v>14.36072633075779</v>
       </c>
       <c r="D234">
-        <v>14.31537979777038</v>
+        <v>14.38025751479198</v>
       </c>
       <c r="E234">
-        <v>14.31951840216711</v>
+        <v>14.20368836486425</v>
       </c>
       <c r="F234">
-        <v>14.34552183173181</v>
+        <v>13.86886073410762</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14.27683576479084</v>
+        <v>14.1948841195727</v>
       </c>
       <c r="C235">
-        <v>14.18690922871301</v>
+        <v>14.24144583667114</v>
       </c>
       <c r="D235">
-        <v>14.19613141745594</v>
+        <v>14.2609442555369</v>
       </c>
       <c r="E235">
-        <v>14.2002658829354</v>
+        <v>14.08455167923926</v>
       </c>
       <c r="F235">
-        <v>14.22624330862761</v>
+        <v>13.75353235774893</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.15833270977887</v>
+        <v>14.07575623717434</v>
       </c>
       <c r="C236">
-        <v>14.06778932179925</v>
+        <v>14.12228418007344</v>
       </c>
       <c r="D236">
-        <v>14.07700228795962</v>
+        <v>14.14175031143358</v>
       </c>
       <c r="E236">
-        <v>14.0811326186345</v>
+        <v>13.96553413365139</v>
       </c>
       <c r="F236">
-        <v>14.10708406623761</v>
+        <v>13.63833352682316</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14.03995404075178</v>
+        <v>13.95674748616896</v>
       </c>
       <c r="C237">
-        <v>13.94878853834571</v>
+        <v>14.00324126026898</v>
       </c>
       <c r="D237">
-        <v>13.95799229108076</v>
+        <v>14.02267556420466</v>
       </c>
       <c r="E237">
-        <v>13.9621184910616</v>
+        <v>13.84663561004081</v>
       </c>
       <c r="F237">
-        <v>13.98804398632583</v>
+        <v>13.52326434621208</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>13.92169972775655</v>
+        <v>13.83785774850178</v>
       </c>
       <c r="C238">
-        <v>13.82990676030824</v>
+        <v>13.88431697504257</v>
       </c>
       <c r="D238">
-        <v>13.83910130876213</v>
+        <v>13.90371989571482</v>
       </c>
       <c r="E238">
-        <v>13.84322338215471</v>
+        <v>13.72785599048887</v>
       </c>
       <c r="F238">
-        <v>13.86912295079845</v>
+        <v>13.40832492546274</v>
       </c>
     </row>
   </sheetData>
